--- a/data/hotels_by_city/Denver/Denver_shard_67.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_67.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g609128-d80997-Reviews-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Econo-Lodge-Tech-Center.h98913.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1025 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r587920145-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609128</t>
+  </si>
+  <si>
+    <t>80997</t>
+  </si>
+  <si>
+    <t>587920145</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Big let down</t>
+  </si>
+  <si>
+    <t>I had booked the hot-tub room for the night as a surprise for my husband. It was a Non-Smoking hotel, but the room smelled like someone had been smoking in the room. The bathroom was very out dated and the toilet paper dispenser was coming out of the wall. The hot-tub was great! As we started to go to sleep we kept hearing water dripping, we realized that it was the ceiling above the hot-tub. We went and told the front desk, but they were not worried about it. We didn’t sleep all night we could hear the dripping ALL night. So unhappy with our stay.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r582933231-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>582933231</t>
+  </si>
+  <si>
+    <t>05/26/2018</t>
+  </si>
+  <si>
+    <t>Not happy with our selection</t>
+  </si>
+  <si>
+    <t>Our experience did not start off well with the less than friendly front desk person.  At least in the morning the person was nicer.The room was okay but nothing special.  For one night it would suffice but I wouldn't want to spend an extended period of time there.  Breakfast was basically bread and cereal.  Econolodge can be great and pretty basic.  This place falls into the pretty basic category</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r570623042-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>570623042</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Traveler beware!</t>
+  </si>
+  <si>
+    <t>I realize they may be in transition from Quality Inn to Econo Lodge, but please avoid this place!   Among the many issues for our 3-day stay:  The swimming pool is under renovation and not operational;  The beds were too soft and well used! They only clean and service your room upon request.  Our room key was deactivate every day and we had to ask the front desk to reset it each day.  The staff was friendly but knew the issues were beyond them.  My hair dryer practically blew up!  It smoked when I turned it on and had to ask for another hair dryer.  The breakfast was horrible. They did not offer any protein. The waffle mix was sour!  Other than waffles, there was only toast, yogurt (Great Value brand) english muffins, and dry cereal.  The coffee was weak. I guess you get what you pay for, unfortunately.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>I realize they may be in transition from Quality Inn to Econo Lodge, but please avoid this place!   Among the many issues for our 3-day stay:  The swimming pool is under renovation and not operational;  The beds were too soft and well used! They only clean and service your room upon request.  Our room key was deactivate every day and we had to ask the front desk to reset it each day.  The staff was friendly but knew the issues were beyond them.  My hair dryer practically blew up!  It smoked when I turned it on and had to ask for another hair dryer.  The breakfast was horrible. They did not offer any protein. The waffle mix was sour!  Other than waffles, there was only toast, yogurt (Great Value brand) english muffins, and dry cereal.  The coffee was weak. I guess you get what you pay for, unfortunately.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r497457353-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>497457353</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>started bad ended great</t>
+  </si>
+  <si>
+    <t>Checking in a little bit of a choir- ciya was less than pleasant and very hard to deal with- she doesn't belong behind the desk of any hotel. when I called down for towels I was told to come and get them my self from the desk- when I came down she was sitting in the lobby with what appeared as friends talking and laughing- finally was able to pull her away and she got me towels- the next morning breakfast was amazing and good variety sausage was very tasty and the eggs were good. I met the manager Nicole that morning and she was the whole reason we didn't leave! she was attentive and apologetic and made me feel very welcome! she was willing to go above and beyond to make sure our stay was better! Had a great conversation with William about things to do and see in the town, he was very friendly and knowledgeable! Every time I came down they were on the move and that's welcoming to see knowing that they are making sure the hotel is in top shape! YAY for Nicole and William boo for ciyaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Checking in a little bit of a choir- ciya was less than pleasant and very hard to deal with- she doesn't belong behind the desk of any hotel. when I called down for towels I was told to come and get them my self from the desk- when I came down she was sitting in the lobby with what appeared as friends talking and laughing- finally was able to pull her away and she got me towels- the next morning breakfast was amazing and good variety sausage was very tasty and the eggs were good. I met the manager Nicole that morning and she was the whole reason we didn't leave! she was attentive and apologetic and made me feel very welcome! she was willing to go above and beyond to make sure our stay was better! Had a great conversation with William about things to do and see in the town, he was very friendly and knowledgeable! Every time I came down they were on the move and that's welcoming to see knowing that they are making sure the hotel is in top shape! YAY for Nicole and William boo for ciyaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r497295759-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>497295759</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>So glad we landed here!</t>
+  </si>
+  <si>
+    <t>My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! 😊
+Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly...My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly zen. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! 😊
+Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly...My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly zen. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r495994930-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>495994930</t>
+  </si>
+  <si>
+    <t>06/25/2017</t>
+  </si>
+  <si>
+    <t>Good, Average Hotel at Denver Tech Center</t>
+  </si>
+  <si>
+    <t>I'm not sure what's up with the horrible reviews but they must have cleaned up their act.  The place was clean, staff friendly, bed was fine, and the breakfast is what you would expect as the lower end Choice properties.  I'm particular with hotels and have no problem letting them know when the property or service is not up to standards but this place met all of my expectations.  I will stay here again when in Denver.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r486275437-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>486275437</t>
+  </si>
+  <si>
+    <t>05/21/2017</t>
+  </si>
+  <si>
+    <t>Looters</t>
+  </si>
+  <si>
+    <t>Hey guys, I stayed in this hotel for 1 month during April 2017 and for every payment I had made to this hotel, I was double charged. They are real looters. Do go to this hotel, if your don't care about your money. Looters... Looters.... Careful</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r485595909-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>485595909</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>A Good Deal for Travelers</t>
+  </si>
+  <si>
+    <t>We asked for double beds, but none were available, so the desk gave us a suite at the same price. The room was great; refrigerator and microwave were available. Clean room and bathroom WITH a jacuzzi! Enjoyed a great nights' rest. Will refer this hotel for travelers.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r483673061-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>483673061</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Typical mid-range chain hotel</t>
+  </si>
+  <si>
+    <t>This hotel is like any other Quality Inn anywhere else. It was clean, the bed was comfortable, there was a microwave and refrigerator, an iron with ironing board, wifi was sufficient. There are a number of restaurants nearby. My only caveat: I stayed in room 219, right next to the stairwell and I could hear people running up and down the stairs until about 10:00. Otherwise, sufficient for a one night stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r414748693-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>414748693</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>There was an open window with a 4x4 hole in the screen &amp; 3 hornets on the inside of the room as we 1st entered. To the desk manager's credit, he immediately complied with my request to kill them &amp; close the window. Sofa was very stained. Carpet was dirty &amp; smelly.  Small refrigerator was all dented up.  We have stayed in this same area before &amp; had a completely different, very nice experience at the next hotel down the street.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r413369720-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>413369720</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Dumpy</t>
+  </si>
+  <si>
+    <t>We had reserved two rooms. One of the non smoking was really bad smoky. Desk staff wasn't concerned enough to do anything about it -or care. The other room is out dated and dirty. The refrigerator leaks and even comes with its own towel.  The head stain on the pic of the smaller chair is not a shadow.From many of the other reviews we seem to have gotten one of the better rooms. The pictures provided my management must be their own room because they don't look like this!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r401246782-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>401246782</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Happy we came</t>
+  </si>
+  <si>
+    <t>After some of the reviews of this Quality Inn, I was leary. Arrived a night early. The got us a room and joined it with our reservation.  Room was clean. Beds are very comfortable and clean. Rooms are quite. Breakfast was ready on time and delicious. Pool and hot tub are inviting.  Definitely glad I chose here. We will return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r388496130-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>388496130</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Is this a hostel or a hotel!!!!!!</t>
+  </si>
+  <si>
+    <t>Not a family spot! My wife &amp; I stayed here with our 3 1/2 year old &amp; I would never return. The room was clean and descent but there was shady stuff &amp; people hanging out everywhere around this hotel! The first night we arrived my wife was greeted by gentlemen hanging out in the lobby! She took my daughter to swim in the pool &amp; there were electrical cords running across the deck, the step rail was completely coming off &amp; there was a man in the jacuzzi all tatted up (gang style) with his shirt off chilling out! Somebody needs to come in here take over &amp; clean this place up!!!! Great area, tons of stuff to do, find another place to stay!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Not a family spot! My wife &amp; I stayed here with our 3 1/2 year old &amp; I would never return. The room was clean and descent but there was shady stuff &amp; people hanging out everywhere around this hotel! The first night we arrived my wife was greeted by gentlemen hanging out in the lobby! She took my daughter to swim in the pool &amp; there were electrical cords running across the deck, the step rail was completely coming off &amp; there was a man in the jacuzzi all tatted up (gang style) with his shirt off chilling out! Somebody needs to come in here take over &amp; clean this place up!!!! Great area, tons of stuff to do, find another place to stay!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r387961260-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>387961260</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>DO NOT STAY HERE!!!</t>
+  </si>
+  <si>
+    <t>In an attempt to save a few dollars I live the ultimate quote of: "You get what you pay for."The room was disgusting! The shower had hair on the walls, the shower faucet was filthy, and, wait for it.....wait for it.....IT HAD BED BUGS!!!!  I was chewed up within a matter of minutes!!  I had to sleep on the office chair in the room. Spend more...stay at another hotel!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r380709059-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>380709059</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Stay somewhere else</t>
+  </si>
+  <si>
+    <t>The room smelled of smoke.  We notofied the manager on duty Josh.  He gave us spray for the room and maybe someone was smoking in it.  Smoke free room??  When we arrived there were 2 guys in the lobby playing a guitar and talking about women.  They seemed very drunk.  Very little parking.  Many wine bottles in the parking lot.  Shower rod in bathroom was very rusty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r342390361-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>342390361</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Comfortable, clean and afortable</t>
+  </si>
+  <si>
+    <t>They are in the middle of a remodel. Everyone I was in contact with were very friendly. Breakfast was hot and good. Close to all the stores. I was very pleased with everything.the WiFi is strong. Tried to submit but says I need 200 words.. I'm sorry but I just don't know what else to say. I travel a lot and I guess this will be my last review MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Khurshid K, Owner at Econo Lodge Tech Center, responded to this reviewResponded January 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2016</t>
+  </si>
+  <si>
+    <t>They are in the middle of a remodel. Everyone I was in contact with were very friendly. Breakfast was hot and good. Close to all the stores. I was very pleased with everything.the WiFi is strong. Tried to submit but says I need 200 words.. I'm sorry but I just don't know what else to say. I travel a lot and I guess this will be my last review More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r341490147-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>341490147</t>
+  </si>
+  <si>
+    <t>01/20/2016</t>
+  </si>
+  <si>
+    <t>Green Eggs and Bugs! Barking dog! Avoid the pool!</t>
+  </si>
+  <si>
+    <t>Since it has been made clear that nobody has any attention of properly addressing my complaints, I will have to speak up. I filed a complaint with Choice Hotels in regard to the Quality(NOT) Inn in Centennial, Colorado and was told I would be contacted directly by the general manager Khurshid Khan. I was also told by Choice, that he had sent me an email in regard to my complaint. It never happened.
+Just looking in the pool, you can see the pool surface is in a state of complete deterioration. It is completely peeling apart. I should have known there would be problems. I did swim in it a couple days before realizing the pain &amp; swelling of my jaw and right ear canal, along with dizziness were caused by an extreme ear infection. In understandable medical terms, “Do not swim in a pool with bad water, or you will get an ear infection of epic proportions.” They are VERY painful!
+While I never actually saw the bedbugs, I woke up with about a dozen swollen red(as in bleeding) bug bites on my left leg. They are there in force!
+They claim to have a hot cooked breakfast and that they do. However, how do you actually make green eggs? I asked about this several times and was told it was the milk. It was not St. Patrick's Day, but these scrambled eggs, that are served EVERY day are...Since it has been made clear that nobody has any attention of properly addressing my complaints, I will have to speak up. I filed a complaint with Choice Hotels in regard to the Quality(NOT) Inn in Centennial, Colorado and was told I would be contacted directly by the general manager Khurshid Khan. I was also told by Choice, that he had sent me an email in regard to my complaint. It never happened.Just looking in the pool, you can see the pool surface is in a state of complete deterioration. It is completely peeling apart. I should have known there would be problems. I did swim in it a couple days before realizing the pain &amp; swelling of my jaw and right ear canal, along with dizziness were caused by an extreme ear infection. In understandable medical terms, “Do not swim in a pool with bad water, or you will get an ear infection of epic proportions.” They are VERY painful!While I never actually saw the bedbugs, I woke up with about a dozen swollen red(as in bleeding) bug bites on my left leg. They are there in force!They claim to have a hot cooked breakfast and that they do. However, how do you actually make green eggs? I asked about this several times and was told it was the milk. It was not St. Patrick's Day, but these scrambled eggs, that are served EVERY day are BRIGHT GREEN! Mold? I do not know, but I will not eat green eggs. EVER! Would you?Finally, the barking dog in the room next to me went nonstop for 3 days. The night manager and the day manager Sam COMPLETELY IGNORED my requests to just stop the barking. I know there were several other complaints. They refused to do anything at all so I finally checked out. All I ever got at this place was excuses from Sam, and when the Choice Hotels Complaint Department admitted they could do absolutely nothing because the Quality Inn is a privately owned hotel, I decided I will have to AVOID this chain completely in the future. I strongly suggest you do the same. The one competent employee (Zen, who had been there for 5 years) quit his job while I was there. For some reason, he was sneaking out the side door with his baggage in the middle of his work day. He clearly didn't want them to know he was departing unannounced. I am certain this place has MANY other problems. There are many nice hotels in Centennial, Colorado. Since this one was basically empty, I am quite certain I am not the first to notice this disaster of a place and avoid it. I was finally put in touch on the phone with Sam(not the legitimate owner/manager Khurshid Khan as I was told by Choice) this morning. Sam merely suggested I take him to court, as he admitted freely he has been there MANY times before. If that isn't an admission of guilt, what is? He expects to be sued. THIS PLACE IS HIGHLY NOT RECOMMENDED!  MoreShow less</t>
+  </si>
+  <si>
+    <t>Since it has been made clear that nobody has any attention of properly addressing my complaints, I will have to speak up. I filed a complaint with Choice Hotels in regard to the Quality(NOT) Inn in Centennial, Colorado and was told I would be contacted directly by the general manager Khurshid Khan. I was also told by Choice, that he had sent me an email in regard to my complaint. It never happened.
+Just looking in the pool, you can see the pool surface is in a state of complete deterioration. It is completely peeling apart. I should have known there would be problems. I did swim in it a couple days before realizing the pain &amp; swelling of my jaw and right ear canal, along with dizziness were caused by an extreme ear infection. In understandable medical terms, “Do not swim in a pool with bad water, or you will get an ear infection of epic proportions.” They are VERY painful!
+While I never actually saw the bedbugs, I woke up with about a dozen swollen red(as in bleeding) bug bites on my left leg. They are there in force!
+They claim to have a hot cooked breakfast and that they do. However, how do you actually make green eggs? I asked about this several times and was told it was the milk. It was not St. Patrick's Day, but these scrambled eggs, that are served EVERY day are...Since it has been made clear that nobody has any attention of properly addressing my complaints, I will have to speak up. I filed a complaint with Choice Hotels in regard to the Quality(NOT) Inn in Centennial, Colorado and was told I would be contacted directly by the general manager Khurshid Khan. I was also told by Choice, that he had sent me an email in regard to my complaint. It never happened.Just looking in the pool, you can see the pool surface is in a state of complete deterioration. It is completely peeling apart. I should have known there would be problems. I did swim in it a couple days before realizing the pain &amp; swelling of my jaw and right ear canal, along with dizziness were caused by an extreme ear infection. In understandable medical terms, “Do not swim in a pool with bad water, or you will get an ear infection of epic proportions.” They are VERY painful!While I never actually saw the bedbugs, I woke up with about a dozen swollen red(as in bleeding) bug bites on my left leg. They are there in force!They claim to have a hot cooked breakfast and that they do. However, how do you actually make green eggs? I asked about this several times and was told it was the milk. It was not St. Patrick's Day, but these scrambled eggs, that are served EVERY day are BRIGHT GREEN! Mold? I do not know, but I will not eat green eggs. EVER! Would you?Finally, the barking dog in the room next to me went nonstop for 3 days. The night manager and the day manager Sam COMPLETELY IGNORED my requests to just stop the barking. I know there were several other complaints. They refused to do anything at all so I finally checked out. All I ever got at this place was excuses from Sam, and when the Choice Hotels Complaint Department admitted they could do absolutely nothing because the Quality Inn is a privately owned hotel, I decided I will have to AVOID this chain completely in the future. I strongly suggest you do the same. The one competent employee (Zen, who had been there for 5 years) quit his job while I was there. For some reason, he was sneaking out the side door with his baggage in the middle of his work day. He clearly didn't want them to know he was departing unannounced. I am certain this place has MANY other problems. There are many nice hotels in Centennial, Colorado. Since this one was basically empty, I am quite certain I am not the first to notice this disaster of a place and avoid it. I was finally put in touch on the phone with Sam(not the legitimate owner/manager Khurshid Khan as I was told by Choice) this morning. Sam merely suggested I take him to court, as he admitted freely he has been there MANY times before. If that isn't an admission of guilt, what is? He expects to be sued. THIS PLACE IS HIGHLY NOT RECOMMENDED!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r330932753-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>330932753</t>
+  </si>
+  <si>
+    <t>12/05/2015</t>
+  </si>
+  <si>
+    <t>Ok room, noisy heater</t>
+  </si>
+  <si>
+    <t>Average ok room.  Odd square pillows but the beds were good.  Breakfast was good and had a choice between turkey bacon and sausage.  The odd thing was the poor quality heaters.  Made noise.  Thermostat didn't work well.  We were on the first floor so after warming up the room, we turned it off for the night and were fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Khurshid K, Owner at Econo Lodge Tech Center, responded to this reviewResponded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2015</t>
+  </si>
+  <si>
+    <t>Average ok room.  Odd square pillows but the beds were good.  Breakfast was good and had a choice between turkey bacon and sausage.  The odd thing was the poor quality heaters.  Made noise.  Thermostat didn't work well.  We were on the first floor so after warming up the room, we turned it off for the night and were fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r311172381-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>311172381</t>
+  </si>
+  <si>
+    <t>09/16/2015</t>
+  </si>
+  <si>
+    <t>Stay away</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is nasty. As soon as we walked in to get our room keys there was a awful  smell. There were people at the corners of the hotel (selling drugs). Loud drunk people in the hallways. Just s bad experience. This hotel is very old and needs some updates bad. </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r311162575-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>311162575</t>
+  </si>
+  <si>
+    <t>Mold and rust in bathroom</t>
+  </si>
+  <si>
+    <t>We had two rooms secured via Expedia. Check-in took more than 15 minutes since the staff was not sure if both rooms are clean and ready. The wall paper at the bathroom was falling and there were mold buildup on the corners of the bathroom. The frame of the bathroom door was rusted. The sheet rock above the bathtub was exposed and the covering material was already gone. The inside of the lamps were mostly gone, guessing the lamps must be 20 years old. There was an open gap between the AC and the wall. The tray and vegetable box of refrigerator were missing and the freezer section was covered with the frost that there were no room to put anything in the freezer. Even the elevator walls needed repair. So wonder how the corporate allows such a room be rented.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had two rooms secured via Expedia. Check-in took more than 15 minutes since the staff was not sure if both rooms are clean and ready. The wall paper at the bathroom was falling and there were mold buildup on the corners of the bathroom. The frame of the bathroom door was rusted. The sheet rock above the bathtub was exposed and the covering material was already gone. The inside of the lamps were mostly gone, guessing the lamps must be 20 years old. There was an open gap between the AC and the wall. The tray and vegetable box of refrigerator were missing and the freezer section was covered with the frost that there were no room to put anything in the freezer. Even the elevator walls needed repair. So wonder how the corporate allows such a room be rented.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r309844095-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>309844095</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>OK for the price and location</t>
+  </si>
+  <si>
+    <t>Yes the hotel is older, a little worn, but we found it to be OK. Staff was very nice and accommodating. Maybe we had one of the better rooms by asking to see it before checking in? Not impressed with so many dogs being allowed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Khurshid K, Owner at Econo Lodge Tech Center, responded to this reviewResponded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 18, 2015</t>
+  </si>
+  <si>
+    <t>Yes the hotel is older, a little worn, but we found it to be OK. Staff was very nice and accommodating. Maybe we had one of the better rooms by asking to see it before checking in? Not impressed with so many dogs being allowed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r305162691-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>305162691</t>
+  </si>
+  <si>
+    <t>08/30/2015</t>
+  </si>
+  <si>
+    <t>On business and leisure, found the area clean and pleasant except it was very hot during the day</t>
+  </si>
+  <si>
+    <t>read all the bad reviews but my stay was great,  Hotel shows it age but not bad for the price. the area was perfect and quiet.  I felt safe and comfortable there.  restaurants within minutes and the Staff was very in tune with the best places to eat.  the places I needed to be were also close and there was a golf course 3 minutes from the HotelMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>read all the bad reviews but my stay was great,  Hotel shows it age but not bad for the price. the area was perfect and quiet.  I felt safe and comfortable there.  restaurants within minutes and the Staff was very in tune with the best places to eat.  the places I needed to be were also close and there was a golf course 3 minutes from the HotelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r299720058-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>299720058</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Filthy room, smelly lobby and hallway</t>
+  </si>
+  <si>
+    <t>Hair and god knows what else around the toilet. Old smoke detector disconnected and a nasty hole around it (has another smoke detector in room). Shower dirty. Sink dirty. Lobby smells like cigarette smoke. Elevator smells like someone smoked pot in it. 2nd floor has awful body odor smell. Ice machine has no cover, can look right into the ice machine where the evaporator coil is located. No change on hand for laundry.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r299509830-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>299509830</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>From the suspicious yellow stain on the coverlet to the crunchy carpet, this place is dirty.  Other than making the bed, housekeeping did not clean the room daily.  There was very little offered for breakfast. The only bright spot was a friendly staff but they could not convince the housekeeper to clean the room as requested.  For the price this hotel is horrible!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r294177837-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>294177837</t>
+  </si>
+  <si>
+    <t>07/30/2015</t>
+  </si>
+  <si>
+    <t>Spiders</t>
+  </si>
+  <si>
+    <t>The pool was lime green. Could not see the bottom, the hot tub was clean but still did not use. The room was not vacuumed from the prior visit. There were spiders in the corners of the ceiling and in the back entrance. Back entrance was not inviting as trash was everywhere. Sheets had burned holes in them. The bed was comfortable. White socks where black after walking a few times without shoes in room. Was too tired to complain.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r289369826-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>289369826</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Poor Maintenance, dirty!!</t>
+  </si>
+  <si>
+    <t>The room we were given is terrible!!! Burn holes in the comforters, dead bugs on the window seal, out of date, trash on the floor under bed, the wall paper on the shower head is coming off, brown spots all over the top of the shower, the leg on the table is broken and I'm sure we can keep going on and on....the door to the side of the hotel does not close either therefore, is in unsecured and anyone can walk in!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r284057346-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>284057346</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>The hotel was so dirty! The first room we were given had blood on the wall, cheese on the curtain, and burn holes and permanent marker on the coverlets. The fire alarm was also covered with a plastic baggie. There is never a reason for a room to be dirty in a hotel--that's what the cleaning crew is paid to do! 
+The front desk staff was nice enough to move us to another room, which was much cleaner, however, I did later note that there was a hole in the screen and some hair clippings around the sink faucet, which took me two seconds to clean up! What is up with this hotel's cleaning staff?!?
+The waffle iron is so old, all of its nonstick ability is gone. The staff is somewhat slow to clean up the breakfast area. The coffee was so awful, we had to go elsewhere every morning for our caffeine kick. ($10 for two starbucks drinks - heck, we could have spent that on a cleaner hotel room. ugh!) I also noted that behind the trash can in the dining area there was a month's (or more) of gunk built up. So nasty. I think this hotel needs new management that actually gets the staff to clean. 
+Even the elevator was disgusting. There was sticky stuff all over the floor and a huge hand print on the inside of the door. Easy things to clean, but...The hotel was so dirty! The first room we were given had blood on the wall, cheese on the curtain, and burn holes and permanent marker on the coverlets. The fire alarm was also covered with a plastic baggie. There is never a reason for a room to be dirty in a hotel--that's what the cleaning crew is paid to do! The front desk staff was nice enough to move us to another room, which was much cleaner, however, I did later note that there was a hole in the screen and some hair clippings around the sink faucet, which took me two seconds to clean up! What is up with this hotel's cleaning staff?!?The waffle iron is so old, all of its nonstick ability is gone. The staff is somewhat slow to clean up the breakfast area. The coffee was so awful, we had to go elsewhere every morning for our caffeine kick. ($10 for two starbucks drinks - heck, we could have spent that on a cleaner hotel room. ugh!) I also noted that behind the trash can in the dining area there was a month's (or more) of gunk built up. So nasty. I think this hotel needs new management that actually gets the staff to clean. Even the elevator was disgusting. There was sticky stuff all over the floor and a huge hand print on the inside of the door. Easy things to clean, but none of the staff seemed to care much about doing anything other than sitting around in the lobby staring at people walking in and out all day long.For the price we paid, the place was horrid. It makes me think twice about staying at another Quality Inn anywhere or at a Choice Hotel's chain hotel. Both companies need to reconsider their affiliation with this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>The hotel was so dirty! The first room we were given had blood on the wall, cheese on the curtain, and burn holes and permanent marker on the coverlets. The fire alarm was also covered with a plastic baggie. There is never a reason for a room to be dirty in a hotel--that's what the cleaning crew is paid to do! 
+The front desk staff was nice enough to move us to another room, which was much cleaner, however, I did later note that there was a hole in the screen and some hair clippings around the sink faucet, which took me two seconds to clean up! What is up with this hotel's cleaning staff?!?
+The waffle iron is so old, all of its nonstick ability is gone. The staff is somewhat slow to clean up the breakfast area. The coffee was so awful, we had to go elsewhere every morning for our caffeine kick. ($10 for two starbucks drinks - heck, we could have spent that on a cleaner hotel room. ugh!) I also noted that behind the trash can in the dining area there was a month's (or more) of gunk built up. So nasty. I think this hotel needs new management that actually gets the staff to clean. 
+Even the elevator was disgusting. There was sticky stuff all over the floor and a huge hand print on the inside of the door. Easy things to clean, but...The hotel was so dirty! The first room we were given had blood on the wall, cheese on the curtain, and burn holes and permanent marker on the coverlets. The fire alarm was also covered with a plastic baggie. There is never a reason for a room to be dirty in a hotel--that's what the cleaning crew is paid to do! The front desk staff was nice enough to move us to another room, which was much cleaner, however, I did later note that there was a hole in the screen and some hair clippings around the sink faucet, which took me two seconds to clean up! What is up with this hotel's cleaning staff?!?The waffle iron is so old, all of its nonstick ability is gone. The staff is somewhat slow to clean up the breakfast area. The coffee was so awful, we had to go elsewhere every morning for our caffeine kick. ($10 for two starbucks drinks - heck, we could have spent that on a cleaner hotel room. ugh!) I also noted that behind the trash can in the dining area there was a month's (or more) of gunk built up. So nasty. I think this hotel needs new management that actually gets the staff to clean. Even the elevator was disgusting. There was sticky stuff all over the floor and a huge hand print on the inside of the door. Easy things to clean, but none of the staff seemed to care much about doing anything other than sitting around in the lobby staring at people walking in and out all day long.For the price we paid, the place was horrid. It makes me think twice about staying at another Quality Inn anywhere or at a Choice Hotel's chain hotel. Both companies need to reconsider their affiliation with this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r271687003-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>271687003</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Econo Lodge at higher price</t>
+  </si>
+  <si>
+    <t>This hotel is on par with an econo lodge, spend more and stay at sleep inn tech center. Aside from the poor fit and finish of the entire place, there were burn holes in the comforter. In my opinion, if they are willing to let ppl. sleep in burn holes, what's going on that you can't see. Floors were not thoroughly vacuumed. Internet does work well however and there is microwave and fridge. Bathroom seems ok.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r270926431-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>270926431</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Perhaps the Worst Hotel in the Choice Hotel chain</t>
+  </si>
+  <si>
+    <t>My wife, daughter and I booked a room here and from the moment we walked into the property, we were shocked. The lobby had a foul stench, as if someone had reheated a fish dinner in the microwave. The Front Desk clerk never left his chair as he checked us in and appeared to have cared less about his job or the property. When we got to the room, it was filthy. The smoke alarm in the room was covered in plastic, I would presume to keep the hotel unaware of smoking that occurred by a previous guest. The plastic looked like it had been there for a while. There were two screws partially submerged I wall anchors hanging from the ceiling. Finally, there appeared to be bloody snot on the wall next to the bed. We were appalled, and left the property. Thankfully, the clerk allowed us to leave without charge. As a business traveler, I spend over 100 nights a year in Choice Properties. This one needs to be have their franchise revoked. It is a dump and not fit for even basic traveler expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife, daughter and I booked a room here and from the moment we walked into the property, we were shocked. The lobby had a foul stench, as if someone had reheated a fish dinner in the microwave. The Front Desk clerk never left his chair as he checked us in and appeared to have cared less about his job or the property. When we got to the room, it was filthy. The smoke alarm in the room was covered in plastic, I would presume to keep the hotel unaware of smoking that occurred by a previous guest. The plastic looked like it had been there for a while. There were two screws partially submerged I wall anchors hanging from the ceiling. Finally, there appeared to be bloody snot on the wall next to the bed. We were appalled, and left the property. Thankfully, the clerk allowed us to leave without charge. As a business traveler, I spend over 100 nights a year in Choice Properties. This one needs to be have their franchise revoked. It is a dump and not fit for even basic traveler expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r270483280-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>270483280</t>
+  </si>
+  <si>
+    <t>05/06/2015</t>
+  </si>
+  <si>
+    <t>Dirty!!!</t>
+  </si>
+  <si>
+    <t>Was very dirty all around, carpet not vacuumed, furniture dirty and stained. Tv bolted to table and poor screen quality and remote didn't work. Security door blocked open and didn't work. Poor lighting in parking area, elevator felt like it was going jam. Manager did refund with no questions-we did not sleep there.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r254107592-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>254107592</t>
+  </si>
+  <si>
+    <t>02/14/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is atrocious!!! As the other reviews stated, this property is very poorly maintained. The layer of dirt above the shower surround, the nasty chair I wouldn't sit on, and the weird stain on the comforter makes me want to puke. If you need to stay in the area DO NOT stay here. I would expect this from a place with buffet in its name, not quality. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r253628684-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>253628684</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Nice, friendly, good breakfast!!</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel 3 different times, twice on business and 1 time with my girlfriend. What i enjoyed the most about this hotel is its friendly staff the quite and convenient location and the consistent breakfast!! its really competitively priced and i enjoy staying here. i would recommend this place to any of my friends going to the area. I feel so comfortable when i was here that i could really relax. Thanks so much to the staff and management for all there great service and helpful directions and knowledge of the area. I really appreciated a sharp breakfeast in the morning that helped me go through the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>i have stayed at this hotel 3 different times, twice on business and 1 time with my girlfriend. What i enjoyed the most about this hotel is its friendly staff the quite and convenient location and the consistent breakfast!! its really competitively priced and i enjoy staying here. i would recommend this place to any of my friends going to the area. I feel so comfortable when i was here that i could really relax. Thanks so much to the staff and management for all there great service and helpful directions and knowledge of the area. I really appreciated a sharp breakfeast in the morning that helped me go through the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r249623684-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>249623684</t>
+  </si>
+  <si>
+    <t>01/16/2015</t>
+  </si>
+  <si>
+    <t>I don't expect much from QI</t>
+  </si>
+  <si>
+    <t>As a business traveler I get to see many hotels. Normally the Quality Inn brand, while not fancy, is clean and well maintained. NOT THIS PROPERTY. It started nice enough with a friendly and helpful check in but the room was dingy and worn out. The property doesn't look that old but it has been beat up. The parking lot had not been plowed and doors on the back of the building do not work with a room key.Breakfast was about what I expect from a QI, watery scrambled eggs and mystery meat sausage and all the usual waffles, breads, etc..</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r216302955-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>216302955</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>fine for a place to sleep</t>
+  </si>
+  <si>
+    <t>Stayed for one night while in the area for a drum corps show in Denver. We checked in and then returned late to our room. I arrived to check in at 3pm and there was already a sign on the door that said NO VACANCY. For some reason it seemed like there were a lot of people who were staying here for an extended time. The parking was limited in the front of the hotel so we had to walk from the back, which would have been fine but it was kind of creepy back there since there is construction going on. The pool was closed, which was no skin off our backs since we weren't going to use it but just FYI. There were microwaves and fridges in the rooms, so I am sure that's a plus if you are staying an extended time. The breakfast was typical Quality Inn, waffles, pastries, cereal and egg-like substance. Overall we were fine with our stay because it was affordable and that is our number one priority.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Stayed for one night while in the area for a drum corps show in Denver. We checked in and then returned late to our room. I arrived to check in at 3pm and there was already a sign on the door that said NO VACANCY. For some reason it seemed like there were a lot of people who were staying here for an extended time. The parking was limited in the front of the hotel so we had to walk from the back, which would have been fine but it was kind of creepy back there since there is construction going on. The pool was closed, which was no skin off our backs since we weren't going to use it but just FYI. There were microwaves and fridges in the rooms, so I am sure that's a plus if you are staying an extended time. The breakfast was typical Quality Inn, waffles, pastries, cereal and egg-like substance. Overall we were fine with our stay because it was affordable and that is our number one priority.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r210149558-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>210149558</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Bad experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was at this hotel for a work trip and this was just horrible. Check in was ok. The pool was closed for renovations which we were not notified when we made the reservations. When I got to my room, there were used toiletries in the shower from the person before. There were cigarette burns in the sheets, some rooms carpet was torn up and one of our rooms had a good chance of being infected with bed bugs. Never stay here.  </t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r205985687-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>205985687</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever!!</t>
+  </si>
+  <si>
+    <t>They didn't have the correct rooms available, the rooms they did give us were disgusting. One was completely trashed. They let smokers smoke in non smoking rooms, the beds were broken and slanted, people ran through the halls half naked, drugs were being dealt in the hallways, the AC, pool, hot tub and elevator were all broken, the whole hotel reeked or filth and cigarettes and to top it off there was a used feminine hygiene product laying in the hallway. We ended up trying to cancel our reservation since the hotel was a health hazard and the lady at the front desk was beyond rude and couldn't have cared less about the conditions or our complaints. Never stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>They didn't have the correct rooms available, the rooms they did give us were disgusting. One was completely trashed. They let smokers smoke in non smoking rooms, the beds were broken and slanted, people ran through the halls half naked, drugs were being dealt in the hallways, the AC, pool, hot tub and elevator were all broken, the whole hotel reeked or filth and cigarettes and to top it off there was a used feminine hygiene product laying in the hallway. We ended up trying to cancel our reservation since the hotel was a health hazard and the lady at the front desk was beyond rude and couldn't have cared less about the conditions or our complaints. Never stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r188703149-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>188703149</t>
+  </si>
+  <si>
+    <t>12/27/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>Made the pre-paid reservation online for Christmas night.  Arrived later than planned.  Check-in was a breeze, simply identified myself, signed the paper and took the keys.  Price was very good.  Facility just as expected, clean, everything worked, bed great.  Hot breakfast better than most.  Will definitely plan to stay again whenever in Denver.  Wanted to use the pool, but arrived too late in evening and left too early.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r183310123-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>183310123</t>
+  </si>
+  <si>
+    <t>11/02/2013</t>
+  </si>
+  <si>
+    <t>Pleasant experience...</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet.  The staff was pleasant, friendly, and helpful.  The breakfast could have been better; the bacon was very greasy, and the combination of scrambled eggs and potatoes was unappetizing.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Khurshid K, Owner at Econo Lodge Tech Center, responded to this reviewResponded December 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 24, 2015</t>
+  </si>
+  <si>
+    <t>The room was clean and quiet.  The staff was pleasant, friendly, and helpful.  The breakfast could have been better; the bacon was very greasy, and the combination of scrambled eggs and potatoes was unappetizing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r178026442-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>178026442</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Do not stay here</t>
+  </si>
+  <si>
+    <t>This hotel is awful. The rooms are not nice, but that's what you expect for the price. My complaint is the customer service. The manager got our reservation wrong, charged us for the wrong night, and was incredibly rude to us when we tried to straighten things out.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r171541243-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>171541243</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>So sad</t>
+  </si>
+  <si>
+    <t>We had traveled for several hours &amp; arrived with a reservation. The had put us in a room on the 3rd floor, I believe that it was a smoking room at one point. The smell of old smoke was awful &amp; to make it worse the room wasn't clean &amp; the cable wasn't working. I called the front desk to ask if we could get a different room &amp; the lady spoke to me in another language. We took our things &amp; went down to ask her in person. Her English was fine. 45 minutes later, her &amp; another staff member rolling their eyes &amp; speaking in the other language we finally had another room.We will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>We had traveled for several hours &amp; arrived with a reservation. The had put us in a room on the 3rd floor, I believe that it was a smoking room at one point. The smell of old smoke was awful &amp; to make it worse the room wasn't clean &amp; the cable wasn't working. I called the front desk to ask if we could get a different room &amp; the lady spoke to me in another language. We took our things &amp; went down to ask her in person. Her English was fine. 45 minutes later, her &amp; another staff member rolling their eyes &amp; speaking in the other language we finally had another room.We will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r167728420-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>167728420</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Decent Stay</t>
+  </si>
+  <si>
+    <t>We arrived late and stayed for one night.  The room was spacious and clean and the bed was comfortable.  It was not too far from the interstate and easy to find.  It was an affordable option as we made our way north to the airport the next morning.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r158764203-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>158764203</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>Nicer than usual for the chain</t>
+  </si>
+  <si>
+    <t>While this chain isn't the fanciest, this Denver area is pricey even for the lesser chains but this one is better than several others nearby. The lobby and attached breakfast area are small and dark, and right next to the pool but we didn't notice any strong chlorine smell. The front desk clerk was friendly and even offered coffee and juice from the breakfast area. Located in a commercial area, traffic was not busy in the evening but no view of the mountains and almost all of the parking was in the back of the hotel (so a bit of a hike). We stayed on the top floor based on a Trip Advisor review and as promised, it was quiet. Maybe we received one of the spruced up rooms as it was very clean (no mold) with little wear and tear, although the mattress was starting to bow in the middle. The breakfast, while not great, was better than most fast-food fare but was not well stocked (they ran out of coffee by 7 A.M. and didn't brew more). Would stay again if we could get the same room with the fridge and microwave on the top floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>While this chain isn't the fanciest, this Denver area is pricey even for the lesser chains but this one is better than several others nearby. The lobby and attached breakfast area are small and dark, and right next to the pool but we didn't notice any strong chlorine smell. The front desk clerk was friendly and even offered coffee and juice from the breakfast area. Located in a commercial area, traffic was not busy in the evening but no view of the mountains and almost all of the parking was in the back of the hotel (so a bit of a hike). We stayed on the top floor based on a Trip Advisor review and as promised, it was quiet. Maybe we received one of the spruced up rooms as it was very clean (no mold) with little wear and tear, although the mattress was starting to bow in the middle. The breakfast, while not great, was better than most fast-food fare but was not well stocked (they ran out of coffee by 7 A.M. and didn't brew more). Would stay again if we could get the same room with the fridge and microwave on the top floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r142416893-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>142416893</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>Not as good as last time!</t>
+  </si>
+  <si>
+    <t>We have stayed here before with varying results, this was our last time. This property needs a serious update, mold in the bathroom this time and wi-fi that wasn't working well get a fail for a business hotel!</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r138333499-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>138333499</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel in convenient area for Denver attractions</t>
+  </si>
+  <si>
+    <t>This Quality Inn was clean, with comfortable beds, friendly staff. We had two rooms, one with a whirlpool tub that was great. They serve a nice breakfast with hot food choices. The pool area was kept up with an average size pool and large whirlpool. It is easy to find and convenient to the Denver/Golden area. We were here for a Red Rock outdoor concert and this was the closest we could get at a late notice with a price that was very fair. We would consider coming back if in the area again.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r136014789-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>136014789</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Quiet, reasonable and comfortable</t>
+  </si>
+  <si>
+    <t>We stay here most years when we fly into Denver and our latest stay was in July 2012. The motel isn't too easy to find (drive south on I-25 and turn left at Junction 196 onto Dry Creek, then take the first left (after the northbound access to I-25) onto Clinton and follow it round an S-shape until you meet the right turn into East Geddes Ave. It's on the left. The motel is family run and the reception clerk has been the same one we have seen every year for several years. The location is really, really quiet despite being close to the Interstate. The hotel is clean and comfortable, well-priced and the hot breakfast more than adequate. If you're heading south it's a perfect location to get out of Denver without suffering the heavy traffic that seems endemic to the city. You can be in Castle Rock in no time and Colorado Springs isn't much further. Personally, I think it's worth the effort to drive here after flying into Denver International Airport because the next day you can be up and out of the city area in no time at all.
+Other tips: there's a Walmart Supercentre about 5 minutes away though you'd never guess it. Turn left out of the hotel, go down to the end and left at the lights into S Havana, next right into E Easter and then first left into S Kenton and...We stay here most years when we fly into Denver and our latest stay was in July 2012. The motel isn't too easy to find (drive south on I-25 and turn left at Junction 196 onto Dry Creek, then take the first left (after the northbound access to I-25) onto Clinton and follow it round an S-shape until you meet the right turn into East Geddes Ave. It's on the left. The motel is family run and the reception clerk has been the same one we have seen every year for several years. The location is really, really quiet despite being close to the Interstate. The hotel is clean and comfortable, well-priced and the hot breakfast more than adequate. If you're heading south it's a perfect location to get out of Denver without suffering the heavy traffic that seems endemic to the city. You can be in Castle Rock in no time and Colorado Springs isn't much further. Personally, I think it's worth the effort to drive here after flying into Denver International Airport because the next day you can be up and out of the city area in no time at all.Other tips: there's a Walmart Supercentre about 5 minutes away though you'd never guess it. Turn left out of the hotel, go down to the end and left at the lights into S Havana, next right into E Easter and then first left into S Kenton and the road snakes round to the Walmart car-park. More shopping and restaurants are 10 minutes away: head back to Dry Creek and go under I-25. Keep going to Quebec and then turn left down to County Line and go over. Malls etc on either side inc Country Buffet on the left.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stay here most years when we fly into Denver and our latest stay was in July 2012. The motel isn't too easy to find (drive south on I-25 and turn left at Junction 196 onto Dry Creek, then take the first left (after the northbound access to I-25) onto Clinton and follow it round an S-shape until you meet the right turn into East Geddes Ave. It's on the left. The motel is family run and the reception clerk has been the same one we have seen every year for several years. The location is really, really quiet despite being close to the Interstate. The hotel is clean and comfortable, well-priced and the hot breakfast more than adequate. If you're heading south it's a perfect location to get out of Denver without suffering the heavy traffic that seems endemic to the city. You can be in Castle Rock in no time and Colorado Springs isn't much further. Personally, I think it's worth the effort to drive here after flying into Denver International Airport because the next day you can be up and out of the city area in no time at all.
+Other tips: there's a Walmart Supercentre about 5 minutes away though you'd never guess it. Turn left out of the hotel, go down to the end and left at the lights into S Havana, next right into E Easter and then first left into S Kenton and...We stay here most years when we fly into Denver and our latest stay was in July 2012. The motel isn't too easy to find (drive south on I-25 and turn left at Junction 196 onto Dry Creek, then take the first left (after the northbound access to I-25) onto Clinton and follow it round an S-shape until you meet the right turn into East Geddes Ave. It's on the left. The motel is family run and the reception clerk has been the same one we have seen every year for several years. The location is really, really quiet despite being close to the Interstate. The hotel is clean and comfortable, well-priced and the hot breakfast more than adequate. If you're heading south it's a perfect location to get out of Denver without suffering the heavy traffic that seems endemic to the city. You can be in Castle Rock in no time and Colorado Springs isn't much further. Personally, I think it's worth the effort to drive here after flying into Denver International Airport because the next day you can be up and out of the city area in no time at all.Other tips: there's a Walmart Supercentre about 5 minutes away though you'd never guess it. Turn left out of the hotel, go down to the end and left at the lights into S Havana, next right into E Easter and then first left into S Kenton and the road snakes round to the Walmart car-park. More shopping and restaurants are 10 minutes away: head back to Dry Creek and go under I-25. Keep going to Quebec and then turn left down to County Line and go over. Malls etc on either side inc Country Buffet on the left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r131957441-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>131957441</t>
+  </si>
+  <si>
+    <t>06/14/2012</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>I found this hotel to be nice and quiet at night. The beds could have had better mattresses but for the one night that we stayed they were ok. My grandson enjoyed the spacious pool. The breakfast had a variety of items and drinks. However, the eggs were overcooked and the bacon was not very good. All and all we would stay there again .</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r131586815-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>131586815</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Have stayed here twice and they just just renovated some of it. First time we had a sofa with a shredded arm and this time the desk chair had the arm upholstery shredded down to the wood frame - aside from that the rooms were great, comfortable beds, great wifi, clean (no bedbugs from our experience). Jody at the front desk is very friendly and helpful. Breakfast is not one of the better spreads in that they lack many choices.For the price this is a good value depending on the room you get.We will continue to stay here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r131165242-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>131165242</t>
+  </si>
+  <si>
+    <t>06/02/2012</t>
+  </si>
+  <si>
+    <t>Bedbugs!</t>
+  </si>
+  <si>
+    <t>Upon checking in, seemed okay. Large pool and spa,rooms a bit cramped, stale smoke smell in hallways.Later in the evening while relaxing in bed watching TV, found several bedbugs. Front desk offered to move us to another room, but we didn't feel comfortable doing that so checked out. Husband now has several red welts on neck. Hoping they didn't accompany us home. Beware.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r124475920-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>124475920</t>
+  </si>
+  <si>
+    <t>02/12/2012</t>
+  </si>
+  <si>
+    <t>EXCELLENT SERVICE</t>
+  </si>
+  <si>
+    <t>The guy at the front desk was GREAT! He was so helpful and funny too. I probably helped it was the end of my trip and I gave my him left over waters and food. :)  My room was great and had a whirlpool. Very large room and clean. Will stay again.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r8030185-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>8030185</t>
+  </si>
+  <si>
+    <t>06/29/2007</t>
+  </si>
+  <si>
+    <t>Not The Best</t>
+  </si>
+  <si>
+    <t>Looking for a deal, a family member booked our 3 night stay. The room layout is great for our needs, but the bedding is worn. On the queen size mattress is a pad made for a full size bed. Flat sheets are used as the bottom and top sheet, therefore it comes off while sleeping. If bedding is important to you, bring your own or do not stay here. A basic breakfast is provided. There is an IHOP nearby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r5496625-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>5496625</t>
+  </si>
+  <si>
+    <t>07/21/2006</t>
+  </si>
+  <si>
+    <t>Awful, filthy dirty, worst hotel exerience EVER</t>
+  </si>
+  <si>
+    <t>This hotel is awful, it was the very worst lodging experience I have EVER experienced. I thought Best Western was a reputable motel chain, having never stayed in one before this was my first experience with one. 
+When I checked in the night clerk was very surly, when I approached the front desk I told her I had a reservation - she sighed, rolled her eyes and said I'll be right back. Then she walked over to the continental breakfast area and returned, don't know what she did over there as she just walked over there and then returned. She was rude and obviously didn't want to deal with customers at that time. Honestly, I don't care if  the staff are overly friendly or not, I just want a nice, clean place to sleep.
+The room was large and it was quiet. I'm just going to make a list of what I found in that room, it was so disturbing to me.
+1. Looked like a previous guest threw a piece of pizza on the wall, there was reddish food stuck to the wall in the shape of a triangle
+2. A quarter size blood stain on the box spring
+3. An empty carton of cigarettes, inside a King Soopers shopping bag left in the nightstand
+4. Batteries missing from the remote for the TV
+5. The phone was filthy, handle was very dirty as were the numbers
+6. Hair...This hotel is awful, it was the very worst lodging experience I have EVER experienced. I thought Best Western was a reputable motel chain, having never stayed in one before this was my first experience with one. When I checked in the night clerk was very surly, when I approached the front desk I told her I had a reservation - she sighed, rolled her eyes and said I'll be right back. Then she walked over to the continental breakfast area and returned, don't know what she did over there as she just walked over there and then returned. She was rude and obviously didn't want to deal with customers at that time. Honestly, I don't care if  the staff are overly friendly or not, I just want a nice, clean place to sleep.The room was large and it was quiet. I'm just going to make a list of what I found in that room, it was so disturbing to me.1. Looked like a previous guest threw a piece of pizza on the wall, there was reddish food stuck to the wall in the shape of a triangle2. A quarter size blood stain on the box spring3. An empty carton of cigarettes, inside a King Soopers shopping bag left in the nightstand4. Batteries missing from the remote for the TV5. The phone was filthy, handle was very dirty as were the numbers6. Hair dryer handle filthy and almost black (white dryer)7. Coffee maker dirty8. All the light switches were filthy9. Lampshades were all very yellowed and cracked, there was hair hanging from one of them10. Crud on the bathroom wall - I shudder to think what it all was11. Very uncomfortable bed - hole in the couchAs I got ready to go to sleep in this dump I got into bed and got to thinking...if this room is so filthy, I wonder if they even change the sheets between guests. Needless to say I had a very difficult time going to sleep, left all the lights on because it was the epitome of a flea bag motel.The continental breakfast consisted of bread, bagels, waffles, juice and coffee and some dry cereal. Was disappointed that there were no donuts.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2006</t>
+  </si>
+  <si>
+    <t>This hotel is awful, it was the very worst lodging experience I have EVER experienced. I thought Best Western was a reputable motel chain, having never stayed in one before this was my first experience with one. 
+When I checked in the night clerk was very surly, when I approached the front desk I told her I had a reservation - she sighed, rolled her eyes and said I'll be right back. Then she walked over to the continental breakfast area and returned, don't know what she did over there as she just walked over there and then returned. She was rude and obviously didn't want to deal with customers at that time. Honestly, I don't care if  the staff are overly friendly or not, I just want a nice, clean place to sleep.
+The room was large and it was quiet. I'm just going to make a list of what I found in that room, it was so disturbing to me.
+1. Looked like a previous guest threw a piece of pizza on the wall, there was reddish food stuck to the wall in the shape of a triangle
+2. A quarter size blood stain on the box spring
+3. An empty carton of cigarettes, inside a King Soopers shopping bag left in the nightstand
+4. Batteries missing from the remote for the TV
+5. The phone was filthy, handle was very dirty as were the numbers
+6. Hair...This hotel is awful, it was the very worst lodging experience I have EVER experienced. I thought Best Western was a reputable motel chain, having never stayed in one before this was my first experience with one. When I checked in the night clerk was very surly, when I approached the front desk I told her I had a reservation - she sighed, rolled her eyes and said I'll be right back. Then she walked over to the continental breakfast area and returned, don't know what she did over there as she just walked over there and then returned. She was rude and obviously didn't want to deal with customers at that time. Honestly, I don't care if  the staff are overly friendly or not, I just want a nice, clean place to sleep.The room was large and it was quiet. I'm just going to make a list of what I found in that room, it was so disturbing to me.1. Looked like a previous guest threw a piece of pizza on the wall, there was reddish food stuck to the wall in the shape of a triangle2. A quarter size blood stain on the box spring3. An empty carton of cigarettes, inside a King Soopers shopping bag left in the nightstand4. Batteries missing from the remote for the TV5. The phone was filthy, handle was very dirty as were the numbers6. Hair dryer handle filthy and almost black (white dryer)7. Coffee maker dirty8. All the light switches were filthy9. Lampshades were all very yellowed and cracked, there was hair hanging from one of them10. Crud on the bathroom wall - I shudder to think what it all was11. Very uncomfortable bed - hole in the couchAs I got ready to go to sleep in this dump I got into bed and got to thinking...if this room is so filthy, I wonder if they even change the sheets between guests. Needless to say I had a very difficult time going to sleep, left all the lights on because it was the epitome of a flea bag motel.The continental breakfast consisted of bread, bagels, waffles, juice and coffee and some dry cereal. Was disappointed that there were no donuts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r2291232-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>2291232</t>
+  </si>
+  <si>
+    <t>07/11/2004</t>
+  </si>
+  <si>
+    <t>Terrible beds!</t>
+  </si>
+  <si>
+    <t>6/21- The rooms are large.  The pool was cold! We didn't sleep all night as the beds were awful! The sheets kept pulling out which would put us directly on the matress.  Needs to replace beds and get fitted sheets!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r2281289-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>2281289</t>
+  </si>
+  <si>
+    <t>07/06/2004</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>Overall this hotel was pretty good.  I made my reservations online, and when I got there management put me in the wrong type of room.  They quickly fixed things when I brought it to thier attention.  I had a non-smoking room that stunk like smoke.  The room was pretty clean though.  I would recommend this hotel if you got a great rate.  There are only a couple restaurants near by.  I had to drive a ways to find something I wanted.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1560,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1592,3360 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" t="s">
+        <v>97</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>115</v>
+      </c>
+      <c r="O12" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>115</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>153</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>159</v>
+      </c>
+      <c r="X19" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>168</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>169</v>
+      </c>
+      <c r="J21" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="O21" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>175</v>
+      </c>
+      <c r="K22" t="s">
+        <v>176</v>
+      </c>
+      <c r="L22" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>167</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K23" t="s">
+        <v>184</v>
+      </c>
+      <c r="L23" t="s">
+        <v>185</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>186</v>
+      </c>
+      <c r="O23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>159</v>
+      </c>
+      <c r="X23" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>196</v>
+      </c>
+      <c r="L25" t="s">
+        <v>197</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>193</v>
+      </c>
+      <c r="O25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>199</v>
+      </c>
+      <c r="J26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K26" t="s">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>186</v>
+      </c>
+      <c r="O26" t="s">
+        <v>86</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>204</v>
+      </c>
+      <c r="J27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K27" t="s">
+        <v>206</v>
+      </c>
+      <c r="L27" t="s">
+        <v>207</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>186</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>208</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>209</v>
+      </c>
+      <c r="J28" t="s">
+        <v>210</v>
+      </c>
+      <c r="K28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L28" t="s">
+        <v>212</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>213</v>
+      </c>
+      <c r="O28" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>215</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>216</v>
+      </c>
+      <c r="J29" t="s">
+        <v>217</v>
+      </c>
+      <c r="K29" t="s">
+        <v>218</v>
+      </c>
+      <c r="L29" t="s">
+        <v>219</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>220</v>
+      </c>
+      <c r="O29" t="s">
+        <v>86</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J30" t="s">
+        <v>223</v>
+      </c>
+      <c r="K30" t="s">
+        <v>224</v>
+      </c>
+      <c r="L30" t="s">
+        <v>225</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>220</v>
+      </c>
+      <c r="O30" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>220</v>
+      </c>
+      <c r="O31" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>232</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" t="s">
+        <v>234</v>
+      </c>
+      <c r="K32" t="s">
+        <v>235</v>
+      </c>
+      <c r="L32" t="s">
+        <v>236</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>238</v>
+      </c>
+      <c r="J33" t="s">
+        <v>239</v>
+      </c>
+      <c r="K33" t="s">
+        <v>240</v>
+      </c>
+      <c r="L33" t="s">
+        <v>241</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>242</v>
+      </c>
+      <c r="O33" t="s">
+        <v>86</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>250</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>251</v>
+      </c>
+      <c r="J35" t="s">
+        <v>252</v>
+      </c>
+      <c r="K35" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" t="s">
+        <v>254</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>255</v>
+      </c>
+      <c r="O35" t="s">
+        <v>66</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>262</v>
+      </c>
+      <c r="O36" t="s">
+        <v>86</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>263</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>264</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L37" t="s">
+        <v>267</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s">
+        <v>273</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>274</v>
+      </c>
+      <c r="O38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>275</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>276</v>
+      </c>
+      <c r="J39" t="s">
+        <v>277</v>
+      </c>
+      <c r="K39" t="s">
+        <v>278</v>
+      </c>
+      <c r="L39" t="s">
+        <v>279</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>280</v>
+      </c>
+      <c r="O39" t="s">
+        <v>281</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>282</v>
+      </c>
+      <c r="X39" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
+        <v>287</v>
+      </c>
+      <c r="K40" t="s">
+        <v>288</v>
+      </c>
+      <c r="L40" t="s">
+        <v>289</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>290</v>
+      </c>
+      <c r="O40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>291</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>292</v>
+      </c>
+      <c r="J41" t="s">
+        <v>293</v>
+      </c>
+      <c r="K41" t="s">
+        <v>294</v>
+      </c>
+      <c r="L41" t="s">
+        <v>295</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" t="s">
+        <v>86</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>299</v>
+      </c>
+      <c r="J42" t="s">
+        <v>300</v>
+      </c>
+      <c r="K42" t="s">
+        <v>301</v>
+      </c>
+      <c r="L42" t="s">
+        <v>302</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>303</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>304</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>305</v>
+      </c>
+      <c r="J43" t="s">
+        <v>306</v>
+      </c>
+      <c r="K43" t="s">
+        <v>307</v>
+      </c>
+      <c r="L43" t="s">
+        <v>308</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>309</v>
+      </c>
+      <c r="O43" t="s">
+        <v>86</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>311</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>312</v>
+      </c>
+      <c r="J44" t="s">
+        <v>313</v>
+      </c>
+      <c r="K44" t="s">
+        <v>314</v>
+      </c>
+      <c r="L44" t="s">
+        <v>315</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>316</v>
+      </c>
+      <c r="O44" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>2</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>318</v>
+      </c>
+      <c r="J45" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" t="s">
+        <v>320</v>
+      </c>
+      <c r="L45" t="s">
+        <v>321</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>322</v>
+      </c>
+      <c r="O45" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>323</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>324</v>
+      </c>
+      <c r="J46" t="s">
+        <v>325</v>
+      </c>
+      <c r="K46" t="s">
+        <v>326</v>
+      </c>
+      <c r="L46" t="s">
+        <v>327</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>329</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>330</v>
+      </c>
+      <c r="J47" t="s">
+        <v>331</v>
+      </c>
+      <c r="K47" t="s">
+        <v>332</v>
+      </c>
+      <c r="L47" t="s">
+        <v>333</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>334</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>336</v>
+      </c>
+      <c r="J48" t="s">
+        <v>337</v>
+      </c>
+      <c r="K48" t="s">
+        <v>338</v>
+      </c>
+      <c r="L48" t="s">
+        <v>339</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>334</v>
+      </c>
+      <c r="O48" t="s">
+        <v>86</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>340</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>341</v>
+      </c>
+      <c r="J49" t="s">
+        <v>342</v>
+      </c>
+      <c r="K49" t="s">
+        <v>343</v>
+      </c>
+      <c r="L49" t="s">
+        <v>344</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s">
+        <v>334</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>346</v>
+      </c>
+      <c r="J50" t="s">
+        <v>347</v>
+      </c>
+      <c r="K50" t="s">
+        <v>348</v>
+      </c>
+      <c r="L50" t="s">
+        <v>349</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>350</v>
+      </c>
+      <c r="O50" t="s">
+        <v>281</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>351</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" t="s">
+        <v>353</v>
+      </c>
+      <c r="K51" t="s">
+        <v>354</v>
+      </c>
+      <c r="L51" t="s">
+        <v>355</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>356</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>357</v>
+      </c>
+      <c r="J52" t="s">
+        <v>358</v>
+      </c>
+      <c r="K52" t="s">
+        <v>359</v>
+      </c>
+      <c r="L52" t="s">
+        <v>360</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>361</v>
+      </c>
+      <c r="O52" t="s">
+        <v>281</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>363</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>364</v>
+      </c>
+      <c r="J53" t="s">
+        <v>365</v>
+      </c>
+      <c r="K53" t="s">
+        <v>366</v>
+      </c>
+      <c r="L53" t="s">
+        <v>367</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>368</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>369</v>
+      </c>
+      <c r="J54" t="s">
+        <v>370</v>
+      </c>
+      <c r="K54" t="s">
+        <v>371</v>
+      </c>
+      <c r="L54" t="s">
+        <v>372</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_67.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_67.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="590">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,54 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/01/2018</t>
+    <t>08/31/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r593521372-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>609128</t>
+  </si>
+  <si>
+    <t>80997</t>
+  </si>
+  <si>
+    <t>593521372</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Filty dirty</t>
+  </si>
+  <si>
+    <t>My wife's friend booked 2 rooms for a 4 night stay. Showed up, one room had dirty sheets and a very dirty bath room. Other had a bad smell and dirty bathroom. Only good thing about this place was the lady at front desk, who apologized and quickly canceled the rooms. Never stay there.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r589314624-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>589314624</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Not impressed</t>
+  </si>
+  <si>
+    <t>We stayed here a while back the room smelled like something that was soured. They moved us into another room which was better. The breakfast area was very small it only had about 3 tables that set 4 people and 2 that seated 2 people. A very out dated hotel hope Econo Lodge will make renovations to make it better.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r587920145-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
-    <t>609128</t>
-  </si>
-  <si>
-    <t>80997</t>
-  </si>
-  <si>
     <t>587920145</t>
   </si>
   <si>
@@ -222,6 +258,48 @@
     <t>I realize they may be in transition from Quality Inn to Econo Lodge, but please avoid this place!   Among the many issues for our 3-day stay:  The swimming pool is under renovation and not operational;  The beds were too soft and well used! They only clean and service your room upon request.  Our room key was deactivate every day and we had to ask the front desk to reset it each day.  The staff was friendly but knew the issues were beyond them.  My hair dryer practically blew up!  It smoked when I turned it on and had to ask for another hair dryer.  The breakfast was horrible. They did not offer any protein. The waffle mix was sour!  Other than waffles, there was only toast, yogurt (Great Value brand) english muffins, and dry cereal.  The coffee was weak. I guess you get what you pay for, unfortunately.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r534134754-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>534134754</t>
+  </si>
+  <si>
+    <t>10/18/2017</t>
+  </si>
+  <si>
+    <t>Surprisingly very pleasant</t>
+  </si>
+  <si>
+    <t>When booking we asked for 2 beds &amp; a roll-a-way, we were informed the rooms were not large enough for a roll-a-way, when entering the room the was much bigger then anticipated had 2 double beds and a sleeper sofa (Which was not advertised on the website). Looks like they are updating the rooms and they are clean.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r532967074-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>532967074</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t>Lovely! Changed A Lot with new Owners</t>
+  </si>
+  <si>
+    <t>I had stayed at this property in the early summer of 2017 and had a horrible experience. As I am reading the other reviews on here they were all there around the same time. I decided to give it another try about 4 months later and to my surprise it has undergone a huge transformation. When I arrived, the building had been re-painted, the staff had a few new faces that were very friendly and accommodating to replace the previous ones that were not so welcoming and the property has new owners &amp; management. They are still in the process of renovating the property from what the last owners &amp; staff left them with, but I hope everyone see's this and decides to give them another chance. You wont be sorry. The new guy Matt was so welcoming and knew what he was doing it seemed like and he checked me in and sent me off to my room with a huge smile on my face, this made my stay and made me not regret giving this place another try. Thank you new owners and Matt for giving people like me a great travel experience. You all are doing and have done a fantastic job so far.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I had stayed at this property in the early summer of 2017 and had a horrible experience. As I am reading the other reviews on here they were all there around the same time. I decided to give it another try about 4 months later and to my surprise it has undergone a huge transformation. When I arrived, the building had been re-painted, the staff had a few new faces that were very friendly and accommodating to replace the previous ones that were not so welcoming and the property has new owners &amp; management. They are still in the process of renovating the property from what the last owners &amp; staff left them with, but I hope everyone see's this and decides to give them another chance. You wont be sorry. The new guy Matt was so welcoming and knew what he was doing it seemed like and he checked me in and sent me off to my room with a huge smile on my face, this made my stay and made me not regret giving this place another try. Thank you new owners and Matt for giving people like me a great travel experience. You all are doing and have done a fantastic job so far.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r497457353-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -255,11 +333,11 @@
     <t>So glad we landed here!</t>
   </si>
   <si>
-    <t>My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! 😊
+    <t>My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! 
 Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly...My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly zen. MoreShow less</t>
   </si>
   <si>
-    <t>My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! 😊
+    <t>My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! 
 Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly...My husband and I moved here from NC for his job, and thank goodness we happened on this hotel. After a week of settling in and getting to know the area I am almost hesitant to leave. The atmosphere is welcoming and safe. The baby bunnies and magpies play together a couple feet away from you in the afternoons sitting outside. The front desk staff goes above and beyond to accommodate their guests. They work long hours and are great breakfast Cooks! Our bed was so comfortable I had to strip it and find out what kind it was for when we do leave I think I want the same one... Beautyrest.. the housekeeping staff comes in Daily and takes wonderful care of us. The room never has time to get messy before they come through and fix it all again with a smile. I really do like it here if only the pool were outside and not indoors me being from the beach I miss my vitamin D. The new owners have taken over within the last week and are putting a fresh spin on the already good. Not only do I highly recommend this hotel I will be very sad to leave it. This hotel is family friendly, no loud partying (so far knock on wood). Make sure to plan ahead if possible and make your reservations early, they fill the rooms quickly. This place is outstandingly zen. More</t>
   </si>
   <si>
@@ -278,7 +356,40 @@
     <t>I'm not sure what's up with the horrible reviews but they must have cleaned up their act.  The place was clean, staff friendly, bed was fine, and the breakfast is what you would expect as the lower end Choice properties.  I'm particular with hotels and have no problem letting them know when the property or service is not up to standards but this place met all of my expectations.  I will stay here again when in Denver.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r493154732-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>493154732</t>
+  </si>
+  <si>
+    <t>06/14/2017</t>
+  </si>
+  <si>
+    <t>Clean Rooms, Close to Activities in Denver</t>
+  </si>
+  <si>
+    <t>Despite poor reviews, our stay was exceptional. Our room was very clean and check-in staff was friendly. Parking is free and WiFi is included in room price. Complimentary breakfast was great with lots of options to choose from. This hotel is about a 20 minute drive from the Denver Museum of Nature and Science and the Denver Zoo (both attractions worth visiting). If you are planning to smoke in your room (it is Colorado after all...) there are plenty of smoking rooms available. We stayed in a smoking room and it was extremely clean and well kept.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r489585266-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>489585266</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Good average hotel</t>
+  </si>
+  <si>
+    <t>I stayed for 6 nights in May despite the terrible reviews. I paid $59/night through Expedia. My experience was just fine and I honestly don't understand why there are such terrible reviews.The room was clean and had a mini fridge and microwave, which were really nice. The hotel was very quiet except for the occasional big truck making noise outside early in the morning. The hotel is in a nicer part of town (business district) and very close to many great restaurants and has easy access to I-25.The manager Josh was awesome, super friendly, very helpful.There were some minor inconveniences but they are just that - minor. Sometimes the decaf coffee was empty, the tub creaked when you stepped in, but these things don't affect quality of life so you just move on. If you are the type of person who needs everyone to constantly bend over backwards for your every slight whim, then you might be upset with this place, but if you're a traveler who needs a good place to stay, then you will be fine here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed for 6 nights in May despite the terrible reviews. I paid $59/night through Expedia. My experience was just fine and I honestly don't understand why there are such terrible reviews.The room was clean and had a mini fridge and microwave, which were really nice. The hotel was very quiet except for the occasional big truck making noise outside early in the morning. The hotel is in a nicer part of town (business district) and very close to many great restaurants and has easy access to I-25.The manager Josh was awesome, super friendly, very helpful.There were some minor inconveniences but they are just that - minor. Sometimes the decaf coffee was empty, the tub creaked when you stepped in, but these things don't affect quality of life so you just move on. If you are the type of person who needs everyone to constantly bend over backwards for your every slight whim, then you might be upset with this place, but if you're a traveler who needs a good place to stay, then you will be fine here.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r486275437-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
@@ -314,9 +425,6 @@
     <t>We asked for double beds, but none were available, so the desk gave us a suite at the same price. The room was great; refrigerator and microwave were available. Clean room and bathroom WITH a jacuzzi! Enjoyed a great nights' rest. Will refer this hotel for travelers.</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r483673061-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -332,6 +440,45 @@
     <t>This hotel is like any other Quality Inn anywhere else. It was clean, the bed was comfortable, there was a microwave and refrigerator, an iron with ironing board, wifi was sufficient. There are a number of restaurants nearby. My only caveat: I stayed in room 219, right next to the stairwell and I could hear people running up and down the stairs until about 10:00. Otherwise, sufficient for a one night stay.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r475937097-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>475937097</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>STAYER BEWARE</t>
+  </si>
+  <si>
+    <t>We stayed here in February (only because of the convenience of the places we were visitng). Swimming pool was NOT heated, upstairs rooms were noisey and breakfast was horrible! But to make things worse... they charged our card AGAIN 2 months later and still have not gotten it corrected. Their story changes all the time but pretty much my problem now since their computer had a "glitch" in the system and they can't do nothing about it. Even called the corporate office of ChoiceHotels and they don't seem to care either. And now we may have to wait 30-60 DAYS for our refund but only thru the bank!!  GRRRRR!!!</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r418206473-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>418206473</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Not a good place to stay</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel from online, I asked for a King Bed with a roll away bed that was list of there website. When I arrived they informed me that they do not have any roll away bed there, and asked if we would like 2 queen beds, since there king rooms were booked already. I agreed ( my 1st Mistake) to do the room with the 2 queen. When we got to my room I was surprised to see it had a hide a couch bed, which when open up had dirty sheets on it and looks like it had never ever been cleaned under it. I called and asked for and got a new set of sheets for the hide a bed. We went to the pool area and there was lots of floating hair ball like things floating in side the pool, we didn't notice them till after we go in and started to swim which was a very cold pool, it seams like the heater went out on it, We went from there to the hot tub, which was fairly nice, at least it seamed like it was cleaned recently but not holding my breath. When we go out to dry off we looked up and saw what appears to be mold along the beam of the celiening in several places, since it was late, we decided that we would go to be...I booked a room at this hotel from online, I asked for a King Bed with a roll away bed that was list of there website. When I arrived they informed me that they do not have any roll away bed there, and asked if we would like 2 queen beds, since there king rooms were booked already. I agreed ( my 1st Mistake) to do the room with the 2 queen. When we got to my room I was surprised to see it had a hide a couch bed, which when open up had dirty sheets on it and looks like it had never ever been cleaned under it. I called and asked for and got a new set of sheets for the hide a bed. We went to the pool area and there was lots of floating hair ball like things floating in side the pool, we didn't notice them till after we go in and started to swim which was a very cold pool, it seams like the heater went out on it, We went from there to the hot tub, which was fairly nice, at least it seamed like it was cleaned recently but not holding my breath. When we go out to dry off we looked up and saw what appears to be mold along the beam of the celiening in several places, since it was late, we decided that we would go to be and not try there breakfast there in the AM. This is by far the worst Quality in that I have visited. I will make sure that I do not stay here in the future, this was not a Quality inn, this was a Trash Dump, the looks fooled meMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I booked a room at this hotel from online, I asked for a King Bed with a roll away bed that was list of there website. When I arrived they informed me that they do not have any roll away bed there, and asked if we would like 2 queen beds, since there king rooms were booked already. I agreed ( my 1st Mistake) to do the room with the 2 queen. When we got to my room I was surprised to see it had a hide a couch bed, which when open up had dirty sheets on it and looks like it had never ever been cleaned under it. I called and asked for and got a new set of sheets for the hide a bed. We went to the pool area and there was lots of floating hair ball like things floating in side the pool, we didn't notice them till after we go in and started to swim which was a very cold pool, it seams like the heater went out on it, We went from there to the hot tub, which was fairly nice, at least it seamed like it was cleaned recently but not holding my breath. When we go out to dry off we looked up and saw what appears to be mold along the beam of the celiening in several places, since it was late, we decided that we would go to be...I booked a room at this hotel from online, I asked for a King Bed with a roll away bed that was list of there website. When I arrived they informed me that they do not have any roll away bed there, and asked if we would like 2 queen beds, since there king rooms were booked already. I agreed ( my 1st Mistake) to do the room with the 2 queen. When we got to my room I was surprised to see it had a hide a couch bed, which when open up had dirty sheets on it and looks like it had never ever been cleaned under it. I called and asked for and got a new set of sheets for the hide a bed. We went to the pool area and there was lots of floating hair ball like things floating in side the pool, we didn't notice them till after we go in and started to swim which was a very cold pool, it seams like the heater went out on it, We went from there to the hot tub, which was fairly nice, at least it seamed like it was cleaned recently but not holding my breath. When we go out to dry off we looked up and saw what appears to be mold along the beam of the celiening in several places, since it was late, we decided that we would go to be and not try there breakfast there in the AM. This is by far the worst Quality in that I have visited. I will make sure that I do not stay here in the future, this was not a Quality inn, this was a Trash Dump, the looks fooled meMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r414748693-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -347,9 +494,6 @@
     <t>There was an open window with a 4x4 hole in the screen &amp; 3 hornets on the inside of the room as we 1st entered. To the desk manager's credit, he immediately complied with my request to kill them &amp; close the window. Sofa was very stained. Carpet was dirty &amp; smelly.  Small refrigerator was all dented up.  We have stayed in this same area before &amp; had a completely different, very nice experience at the next hotel down the street.</t>
   </si>
   <si>
-    <t>September 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r413369720-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -383,6 +527,39 @@
     <t>After some of the reviews of this Quality Inn, I was leary. Arrived a night early. The got us a room and joined it with our reservation.  Room was clean. Beds are very comfortable and clean. Rooms are quite. Breakfast was ready on time and delicious. Pool and hot tub are inviting.  Definitely glad I chose here. We will return.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r400878673-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>400878673</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t>terrible</t>
+  </si>
+  <si>
+    <t>After a long day at the waterpark, we piled into the room tired and ready to rest, but my toddler son, found marijuana in the drawer between the beds, we turned it in and were promised that the manager would contact us and make it right, but the manager  never reached out to us. On top if that the room was average, but the noise level in the hallway was terrible, people were stomping all over the place, and when we checked out at 5 am to go to the airport the front desk girl didn't know anything about us finding pot in the room</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r396430460-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>396430460</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Pleased with the customer servuce</t>
+  </si>
+  <si>
+    <t>Although I didn't actually stay here, I was impressed with the costumer service. Had to cancel my reservation at the last minute &amp; they worked with me &amp; did not charge me a cancellation fee! Because of that, if I'm ever in need of a room in that area again, I will remember this place.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r388496130-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -432,6 +609,48 @@
   </si>
   <si>
     <t>The room smelled of smoke.  We notofied the manager on duty Josh.  He gave us spray for the room and maybe someone was smoking in it.  Smoke free room??  When we arrived there were 2 guys in the lobby playing a guitar and talking about women.  They seemed very drunk.  Very little parking.  Many wine bottles in the parking lot.  Shower rod in bathroom was very rusty.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r368815619-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>368815619</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>VERY run down hotel!</t>
+  </si>
+  <si>
+    <t>I should have done more research before booking this room. When we arrived there was a small group of questionable individuals hanging out near the entrance. I cannot say with 100% certainty, but it did appear as though there was some type of "deal" going on. Even though we had a lot of reservations about staying here, my husband and I were exhausted after being on the road for hours so we checked into our room anyway. Well...everything from the carpet with cigarette burns, to the shabby looking carpet, to the sink that was chipped had been painted rather badly, to the dingy sheets and old uncomfortable bed was terrible. I would NEVER stay here again and I would NEVER recommend this place unless it went through a complete overhaul!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I should have done more research before booking this room. When we arrived there was a small group of questionable individuals hanging out near the entrance. I cannot say with 100% certainty, but it did appear as though there was some type of "deal" going on. Even though we had a lot of reservations about staying here, my husband and I were exhausted after being on the road for hours so we checked into our room anyway. Well...everything from the carpet with cigarette burns, to the shabby looking carpet, to the sink that was chipped had been painted rather badly, to the dingy sheets and old uncomfortable bed was terrible. I would NEVER stay here again and I would NEVER recommend this place unless it went through a complete overhaul!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r359362152-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>359362152</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Self employed</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I have ever had in my whole entire life. They put me in a room and then let someone check into my room it legally steal my money and when I called the police they should know compassion or willingness to help. I had to call the police back to the hotel to switch rooms because the security bull was busted on my door and they weren't willing to switch me. When they did it was fine they 130 at night and I had to get up at 4:30 the next morning and I slept in a room of run down furniture where all the shower and sink hookups where backwards. The comforters had staying had stains, cuts, and we're dirty! The customer service at this hotel was the worst I had run into. The manager had his clothes on talked with food all over them here not done and look like he was fat and out of work! This definitely is a poor man is dinner and business and I wouldn't Warren anyone who would want to even come close to staying here to run!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>This was the worst hotel experience I have ever had in my whole entire life. They put me in a room and then let someone check into my room it legally steal my money and when I called the police they should know compassion or willingness to help. I had to call the police back to the hotel to switch rooms because the security bull was busted on my door and they weren't willing to switch me. When they did it was fine they 130 at night and I had to get up at 4:30 the next morning and I slept in a room of run down furniture where all the shower and sink hookups where backwards. The comforters had staying had stains, cuts, and we're dirty! The customer service at this hotel was the worst I had run into. The manager had his clothes on talked with food all over them here not done and look like he was fat and out of work! This definitely is a poor man is dinner and business and I wouldn't Warren anyone who would want to even come close to staying here to run!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r342390361-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
@@ -512,6 +731,45 @@
     <t>Average ok room.  Odd square pillows but the beds were good.  Breakfast was good and had a choice between turkey bacon and sausage.  The odd thing was the poor quality heaters.  Made noise.  Thermostat didn't work well.  We were on the first floor so after warming up the room, we turned it off for the night and were fine.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r318833517-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>318833517</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Awful... Stay Away!!</t>
+  </si>
+  <si>
+    <t>We were planning on staying for only one night and didn't even make it an hour before we left. The bathroom: Disgusting. The toilet had dried urine on it, the wallpaper in the bathroom was falling off and literally pinned to the wall with thumbtacks, there was a hole in the back of the bathroom door, and I would not have stepped foot in the shower. The room: Also disgusting and rather unsafe. First thing I noticed, the smoke alarm was missing, that was when we decided to leave. Aside from that, there was gum on the floor and burn holes in the bedspreads and furniture. The whole place reeked of smoke. The staff was probably the worst part of all.  Took almost 20 minutes to check out after arguing with the "manager" She told us that since it had been more than 15 minutes, we couldn't check out until the morning and we weren't even asking for our money back. When I asked for the number for her manager, she literally rolled her eyes at me. Finally after 20 minutes of arguing and her finally calling her manager we were allowed to check out. Whatever you do, do not go anywhere near this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We were planning on staying for only one night and didn't even make it an hour before we left. The bathroom: Disgusting. The toilet had dried urine on it, the wallpaper in the bathroom was falling off and literally pinned to the wall with thumbtacks, there was a hole in the back of the bathroom door, and I would not have stepped foot in the shower. The room: Also disgusting and rather unsafe. First thing I noticed, the smoke alarm was missing, that was when we decided to leave. Aside from that, there was gum on the floor and burn holes in the bedspreads and furniture. The whole place reeked of smoke. The staff was probably the worst part of all.  Took almost 20 minutes to check out after arguing with the "manager" She told us that since it had been more than 15 minutes, we couldn't check out until the morning and we weren't even asking for our money back. When I asked for the number for her manager, she literally rolled her eyes at me. Finally after 20 minutes of arguing and her finally calling her manager we were allowed to check out. Whatever you do, do not go anywhere near this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r311323143-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>311323143</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Jose A</t>
+  </si>
+  <si>
+    <t>The room was adequate for a one night stay, however one towel had a tar like substance on it.  The breakfast area was not clean, the attendant was less than pleasant.  Front desk clerk Sam, was very nice and recommended several restaurants to try.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r311172381-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -527,9 +785,6 @@
     <t xml:space="preserve">This hotel is nasty. As soon as we walked in to get our room keys there was a awful  smell. There were people at the corners of the hotel (selling drugs). Loud drunk people in the hallways. Just s bad experience. This hotel is very old and needs some updates bad. </t>
   </si>
   <si>
-    <t>September 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r311162575-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -569,6 +824,39 @@
     <t>Yes the hotel is older, a little worn, but we found it to be OK. Staff was very nice and accommodating. Maybe we had one of the better rooms by asking to see it before checking in? Not impressed with so many dogs being allowed.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r309063963-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>309063963</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>MY LAST STAY HERE</t>
+  </si>
+  <si>
+    <t>Room was not completely cleaned.  Had damp wash cloth and hand towel left on counter where coffee is made.  This left just 1 wash cloth in the room.  Also had to go to front desk to get shampoo.  I had stayed here once before and questioned whether I should again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r308097227-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>308097227</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>There was nothing Quality about this place !!</t>
+  </si>
+  <si>
+    <t>Did a 3 night booking over internet with the pay in advance, that will not happen again at this chain of hotels.  The only plus to the stay was the desk staff was friendly and helpful.  The room was dated, dirty and worn. The carpets where stained and dirty, the shower had mold and rust everywhere.  The chair for the desk was torn and padding on the seat had been removed.  Bed skirt had unknown stains every where. The tables and chairs in the pool area were dirty and were not cleaned the entire stay.  I can't believe that Choice Hotels would let this place use its name.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r305162691-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -584,9 +872,6 @@
     <t>read all the bad reviews but my stay was great,  Hotel shows it age but not bad for the price. the area was perfect and quiet.  I felt safe and comfortable there.  restaurants within minutes and the Staff was very in tune with the best places to eat.  the places I needed to be were also close and there was a golf course 3 minutes from the HotelMoreShow less</t>
   </si>
   <si>
-    <t>July 2015</t>
-  </si>
-  <si>
     <t>read all the bad reviews but my stay was great,  Hotel shows it age but not bad for the price. the area was perfect and quiet.  I felt safe and comfortable there.  restaurants within minutes and the Staff was very in tune with the best places to eat.  the places I needed to be were also close and there was a golf course 3 minutes from the HotelMore</t>
   </si>
   <si>
@@ -618,6 +903,48 @@
   </si>
   <si>
     <t>From the suspicious yellow stain on the coverlet to the crunchy carpet, this place is dirty.  Other than making the bed, housekeeping did not clean the room daily.  There was very little offered for breakfast. The only bright spot was a friendly staff but they could not convince the housekeeper to clean the room as requested.  For the price this hotel is horrible!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r296610380-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>296610380</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Bleh</t>
+  </si>
+  <si>
+    <t>We were in town for a fast trip for a concert, and didn't spend much time at the hotel, fortunately. Our room was average, but there was mold on the wall in the bathroom. It generally wasn't very clean or up to date. The halls and lobby were never clean or inviting, with the front desk clerks seeming more interested in sitting in the lobby chairs with their friends, or hiding in the back, than helping guests. The night front desk clerk was completely unhelpful when we asked about our food options in the area upon returning from the concert at almost midnight. Breakfast was very dismal. We did not have time to visit the pool, but it was nice sized. There is not nearly enough parking for the hotel guests. We were in town on a Wednesday night- I can't imagine how bad it is during b the weekends when they are busy. I would not intentionally return to this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a fast trip for a concert, and didn't spend much time at the hotel, fortunately. Our room was average, but there was mold on the wall in the bathroom. It generally wasn't very clean or up to date. The halls and lobby were never clean or inviting, with the front desk clerks seeming more interested in sitting in the lobby chairs with their friends, or hiding in the back, than helping guests. The night front desk clerk was completely unhelpful when we asked about our food options in the area upon returning from the concert at almost midnight. Breakfast was very dismal. We did not have time to visit the pool, but it was nice sized. There is not nearly enough parking for the hotel guests. We were in town on a Wednesday night- I can't imagine how bad it is during b the weekends when they are busy. I would not intentionally return to this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r295161150-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>295161150</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Average, but Ok</t>
+  </si>
+  <si>
+    <t>It used to be a Best Western, before changing over.  The location is good, the staff was wonderful.  The room is was in was pretty clean, but dated, and a little tired.  Breakfast was decent.  The room had a bathtub which I always like, WiFi worked just fine, it had a good size  refrigerator, and the bed was decent.  It was fine for one night and the price with AAA discount was hard to beat.  In reality, I have stayed in worse places, and might even stay here again if the need arises and the price is right.  Hopefully, they will update the rooms and facility!MoreShow less</t>
+  </si>
+  <si>
+    <t>Khurshid K, Owner at Econo Lodge Tech Center, responded to this reviewResponded December 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2015</t>
+  </si>
+  <si>
+    <t>It used to be a Best Western, before changing over.  The location is good, the staff was wonderful.  The room is was in was pretty clean, but dated, and a little tired.  Breakfast was decent.  The room had a bathtub which I always like, WiFi worked just fine, it had a good size  refrigerator, and the bed was decent.  It was fine for one night and the price with AAA discount was hard to beat.  In reality, I have stayed in worse places, and might even stay here again if the need arises and the price is right.  Hopefully, they will update the rooms and facility!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r294177837-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
@@ -677,6 +1004,42 @@
 Even the elevator was disgusting. There was sticky stuff all over the floor and a huge hand print on the inside of the door. Easy things to clean, but...The hotel was so dirty! The first room we were given had blood on the wall, cheese on the curtain, and burn holes and permanent marker on the coverlets. The fire alarm was also covered with a plastic baggie. There is never a reason for a room to be dirty in a hotel--that's what the cleaning crew is paid to do! The front desk staff was nice enough to move us to another room, which was much cleaner, however, I did later note that there was a hole in the screen and some hair clippings around the sink faucet, which took me two seconds to clean up! What is up with this hotel's cleaning staff?!?The waffle iron is so old, all of its nonstick ability is gone. The staff is somewhat slow to clean up the breakfast area. The coffee was so awful, we had to go elsewhere every morning for our caffeine kick. ($10 for two starbucks drinks - heck, we could have spent that on a cleaner hotel room. ugh!) I also noted that behind the trash can in the dining area there was a month's (or more) of gunk built up. So nasty. I think this hotel needs new management that actually gets the staff to clean. Even the elevator was disgusting. There was sticky stuff all over the floor and a huge hand print on the inside of the door. Easy things to clean, but none of the staff seemed to care much about doing anything other than sitting around in the lobby staring at people walking in and out all day long.For the price we paid, the place was horrid. It makes me think twice about staying at another Quality Inn anywhere or at a Choice Hotel's chain hotel. Both companies need to reconsider their affiliation with this location.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r278166591-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>278166591</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Poor quality</t>
+  </si>
+  <si>
+    <t>I have stayed here several times, not sure why???  There is deferred maintenance every where you look and it makes me wonder what you don't see.  For example, someone had punched a hole in the bathroom door and they did not fix it or care.  The service is horrible, inattentive and sometimes rude.  There was water all over the tile flooring downstairs in the lobby that stayed there for over a day, they did not clean it up, scary!!!  They messed up my billing, way over charged me which I still have to fix, they were rude and did not care about it.  Sorry excuse for a hotel!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r277437813-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>277437813</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here!!!</t>
+  </si>
+  <si>
+    <t>Don't stay here. I thought I was being helped by Benjamin Franklin, he must have been that old he never got out of his chair once. I changed rooms twice. First, he put us in the room above the pool and it was noisy. I asked for another room, got the key and it wasn't even cleaned yet. The last room was okay, the air conditioner didn't work correctly. The hotel didn't look as if it was vacuumed including the rooms. When I came back to use the elevator it wasn't working and I was on the third floor. The coffee was cold and tasted like mud. I would not recommend and I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Don't stay here. I thought I was being helped by Benjamin Franklin, he must have been that old he never got out of his chair once. I changed rooms twice. First, he put us in the room above the pool and it was noisy. I asked for another room, got the key and it wasn't even cleaned yet. The last room was okay, the air conditioner didn't work correctly. The hotel didn't look as if it was vacuumed including the rooms. When I came back to use the elevator it wasn't working and I was on the third floor. The coffee was cold and tasted like mud. I would not recommend and I will never stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r271687003-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -692,9 +1055,6 @@
     <t>This hotel is on par with an econo lodge, spend more and stay at sleep inn tech center. Aside from the poor fit and finish of the entire place, there were burn holes in the comforter. In my opinion, if they are willing to let ppl. sleep in burn holes, what's going on that you can't see. Floors were not thoroughly vacuumed. Internet does work well however and there is microwave and fridge. Bathroom seems ok.</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r270926431-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -728,6 +1088,45 @@
     <t>Was very dirty all around, carpet not vacuumed, furniture dirty and stained. Tv bolted to table and poor screen quality and remote didn't work. Security door blocked open and didn't work. Poor lighting in parking area, elevator felt like it was going jam. Manager did refund with no questions-we did not sleep there.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r265926771-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>265926771</t>
+  </si>
+  <si>
+    <t>04/15/2015</t>
+  </si>
+  <si>
+    <t>Good stay, great room</t>
+  </si>
+  <si>
+    <t>I was pleasantly surprised to find the quality of the room for the price paid; no "surprises" here.The only issue I had was hot/cold faucets on the sink were reversed and I got over that in about 3 seconds.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r258571863-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>258571863</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>OMG!!</t>
+  </si>
+  <si>
+    <t>Please, please, PLEASE, whatever you do, do not stay at this hotel. I never once saw a person cleaning. The first room we were in had wallpaper literally peeling away from the shower wall. There was no obviously no attention given to cleaning although things are not overtly filthy, especially if you arrive in the dark. The entire place had an "old man" musky, stale smell. So much so that we would burn a candle to help. The grounds were horrific. Once we went out to our car and the police were patting down a guy right in front of our car. Another time we went out to get in the car and in the space beside us was a pan full of used motor oil where someone had obviously changed the oil in their vehicle the night before. The strange conglomerate of people who gathered in the front lobby all day, all hours reminded me of the cast of characters from the "Million Dollar Hotel".... scary!!!!  Stay away, stay away, stay away!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Please, please, PLEASE, whatever you do, do not stay at this hotel. I never once saw a person cleaning. The first room we were in had wallpaper literally peeling away from the shower wall. There was no obviously no attention given to cleaning although things are not overtly filthy, especially if you arrive in the dark. The entire place had an "old man" musky, stale smell. So much so that we would burn a candle to help. The grounds were horrific. Once we went out to our car and the police were patting down a guy right in front of our car. Another time we went out to get in the car and in the space beside us was a pan full of used motor oil where someone had obviously changed the oil in their vehicle the night before. The strange conglomerate of people who gathered in the front lobby all day, all hours reminded me of the cast of characters from the "Million Dollar Hotel".... scary!!!!  Stay away, stay away, stay away!!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r254107592-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -782,6 +1181,51 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r221411902-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>221411902</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Horrible!</t>
+  </si>
+  <si>
+    <t>This hotel was a disaster. There was trash in the hot tub. Two of the three ice machines didn't work. There is graffiti in the elevator. My shower curtain was covered in mold. The tub sounded like it was broken underneath the plastic cover. My phone was broke. My alarm clock was broke. When I asked for a wake-up call (please come knock on my door), they forgot! I was an hour late for my trip to the airport and almost missed my flight. The so-called business center is an ancient computer that is so old and slow, it couldn't even load yahoo.com.When I spoke with the person on duty, he said the the owner is trying to sell the hotel, so he won't fix any of the issues. What a mess.I was also told that I would get a refund on my room, but the manager came and went and did not give it to me. Horrible, horrible, horrible. Do not stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This hotel was a disaster. There was trash in the hot tub. Two of the three ice machines didn't work. There is graffiti in the elevator. My shower curtain was covered in mold. The tub sounded like it was broken underneath the plastic cover. My phone was broke. My alarm clock was broke. When I asked for a wake-up call (please come knock on my door), they forgot! I was an hour late for my trip to the airport and almost missed my flight. The so-called business center is an ancient computer that is so old and slow, it couldn't even load yahoo.com.When I spoke with the person on duty, he said the the owner is trying to sell the hotel, so he won't fix any of the issues. What a mess.I was also told that I would get a refund on my room, but the manager came and went and did not give it to me. Horrible, horrible, horrible. Do not stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r217660718-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>217660718</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Not horrible but not very good</t>
+  </si>
+  <si>
+    <t>We had already made reservations at this hotel before reading the reviews and had sent an email to the corporation expressing our concerns, however, never received an answer back.  Because of the way it was booked it was nonrefundable so we were essentially stuck having to stay here.  From now on I will never book a reservation without first reading the reviews as the majority of the reviews were very, very true.  It does look like they are trying to clean up the outside, however, the lighting was still very poor with the lighting in the back not working.  The front desk staff were very nice.  The pool was closed due to renovations and, while I understand that is necessary, it would have been nice to know that ahead of time.  While our room was not "dirty" it was obvious that whoever cleans it didn't feel it was necessary to clean the coffee pot.  In fact, the entire four days we were there it was not ONCE cleaned.  We were in a nonsmoking room, however, the smell of smoke is very strong especially out in the hallway.  If they are going to have smoking and nonsmoking they should separate them a lot more.  An interesting note was that while our room was supposed to be nonsmoking there was still an ashtray in the room.  The tub was a little dicey as it felt and sounded as if it were going...We had already made reservations at this hotel before reading the reviews and had sent an email to the corporation expressing our concerns, however, never received an answer back.  Because of the way it was booked it was nonrefundable so we were essentially stuck having to stay here.  From now on I will never book a reservation without first reading the reviews as the majority of the reviews were very, very true.  It does look like they are trying to clean up the outside, however, the lighting was still very poor with the lighting in the back not working.  The front desk staff were very nice.  The pool was closed due to renovations and, while I understand that is necessary, it would have been nice to know that ahead of time.  While our room was not "dirty" it was obvious that whoever cleans it didn't feel it was necessary to clean the coffee pot.  In fact, the entire four days we were there it was not ONCE cleaned.  We were in a nonsmoking room, however, the smell of smoke is very strong especially out in the hallway.  If they are going to have smoking and nonsmoking they should separate them a lot more.  An interesting note was that while our room was supposed to be nonsmoking there was still an ashtray in the room.  The tub was a little dicey as it felt and sounded as if it were going to fall through the floor at any moment.  They might want to check that out before someone gets hurt.  The price was good but not sure that it was worth it.  This could be a nice hotel but definitely needs a lot more work done on it as well as being staffed with people who take pride in doing their work so that the rooms are cleaned appropriately.Would not recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We had already made reservations at this hotel before reading the reviews and had sent an email to the corporation expressing our concerns, however, never received an answer back.  Because of the way it was booked it was nonrefundable so we were essentially stuck having to stay here.  From now on I will never book a reservation without first reading the reviews as the majority of the reviews were very, very true.  It does look like they are trying to clean up the outside, however, the lighting was still very poor with the lighting in the back not working.  The front desk staff were very nice.  The pool was closed due to renovations and, while I understand that is necessary, it would have been nice to know that ahead of time.  While our room was not "dirty" it was obvious that whoever cleans it didn't feel it was necessary to clean the coffee pot.  In fact, the entire four days we were there it was not ONCE cleaned.  We were in a nonsmoking room, however, the smell of smoke is very strong especially out in the hallway.  If they are going to have smoking and nonsmoking they should separate them a lot more.  An interesting note was that while our room was supposed to be nonsmoking there was still an ashtray in the room.  The tub was a little dicey as it felt and sounded as if it were going...We had already made reservations at this hotel before reading the reviews and had sent an email to the corporation expressing our concerns, however, never received an answer back.  Because of the way it was booked it was nonrefundable so we were essentially stuck having to stay here.  From now on I will never book a reservation without first reading the reviews as the majority of the reviews were very, very true.  It does look like they are trying to clean up the outside, however, the lighting was still very poor with the lighting in the back not working.  The front desk staff were very nice.  The pool was closed due to renovations and, while I understand that is necessary, it would have been nice to know that ahead of time.  While our room was not "dirty" it was obvious that whoever cleans it didn't feel it was necessary to clean the coffee pot.  In fact, the entire four days we were there it was not ONCE cleaned.  We were in a nonsmoking room, however, the smell of smoke is very strong especially out in the hallway.  If they are going to have smoking and nonsmoking they should separate them a lot more.  An interesting note was that while our room was supposed to be nonsmoking there was still an ashtray in the room.  The tub was a little dicey as it felt and sounded as if it were going to fall through the floor at any moment.  They might want to check that out before someone gets hurt.  The price was good but not sure that it was worth it.  This could be a nice hotel but definitely needs a lot more work done on it as well as being staffed with people who take pride in doing their work so that the rooms are cleaned appropriately.Would not recommend staying here.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r216302955-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -797,9 +1241,6 @@
     <t>Stayed for one night while in the area for a drum corps show in Denver. We checked in and then returned late to our room. I arrived to check in at 3pm and there was already a sign on the door that said NO VACANCY. For some reason it seemed like there were a lot of people who were staying here for an extended time. The parking was limited in the front of the hotel so we had to walk from the back, which would have been fine but it was kind of creepy back there since there is construction going on. The pool was closed, which was no skin off our backs since we weren't going to use it but just FYI. There were microwaves and fridges in the rooms, so I am sure that's a plus if you are staying an extended time. The breakfast was typical Quality Inn, waffles, pastries, cereal and egg-like substance. Overall we were fine with our stay because it was affordable and that is our number one priority.MoreShow less</t>
   </si>
   <si>
-    <t>July 2014</t>
-  </si>
-  <si>
     <t>Stayed for one night while in the area for a drum corps show in Denver. We checked in and then returned late to our room. I arrived to check in at 3pm and there was already a sign on the door that said NO VACANCY. For some reason it seemed like there were a lot of people who were staying here for an extended time. The parking was limited in the front of the hotel so we had to walk from the back, which would have been fine but it was kind of creepy back there since there is construction going on. The pool was closed, which was no skin off our backs since we weren't going to use it but just FYI. There were microwaves and fridges in the rooms, so I am sure that's a plus if you are staying an extended time. The breakfast was typical Quality Inn, waffles, pastries, cereal and egg-like substance. Overall we were fine with our stay because it was affordable and that is our number one priority.More</t>
   </si>
   <si>
@@ -839,6 +1280,45 @@
     <t>They didn't have the correct rooms available, the rooms they did give us were disgusting. One was completely trashed. They let smokers smoke in non smoking rooms, the beds were broken and slanted, people ran through the halls half naked, drugs were being dealt in the hallways, the AC, pool, hot tub and elevator were all broken, the whole hotel reeked or filth and cigarettes and to top it off there was a used feminine hygiene product laying in the hallway. We ended up trying to cancel our reservation since the hotel was a health hazard and the lady at the front desk was beyond rude and couldn't have cared less about the conditions or our complaints. Never stay here!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r198457182-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>198457182</t>
+  </si>
+  <si>
+    <t>03/23/2014</t>
+  </si>
+  <si>
+    <t>Good stay, but some quirks</t>
+  </si>
+  <si>
+    <t>My teenage son and I stayed here one night. There were some great things, like very friendly and helpful people. Checking in was easy, and the rate was good. Some attention to a few details would have made it better. The room was clean, but the carpet had been patched and the edges were coming up. The stairwells needed a vacuum badly. The room was nonsmoking, but the adjoining room must not have been. We could tell when they were smoking and smelled when they brewed their coffee. The beds were firm but I slept well. The tv was a tube variety, but the picture was clear. The pool was closed for updating; we knew that when we booked. Breakfast was waffles, bacon, sausage, eggs, cereal, juice. Nothing spectacular, but better than just doughnuts! They were at full capacity, and they kept it fully stocked. The hotel was easy to get to off the interstate, and it was easy to get back on. Overall, a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>My teenage son and I stayed here one night. There were some great things, like very friendly and helpful people. Checking in was easy, and the rate was good. Some attention to a few details would have made it better. The room was clean, but the carpet had been patched and the edges were coming up. The stairwells needed a vacuum badly. The room was nonsmoking, but the adjoining room must not have been. We could tell when they were smoking and smelled when they brewed their coffee. The beds were firm but I slept well. The tv was a tube variety, but the picture was clear. The pool was closed for updating; we knew that when we booked. Breakfast was waffles, bacon, sausage, eggs, cereal, juice. Nothing spectacular, but better than just doughnuts! They were at full capacity, and they kept it fully stocked. The hotel was easy to get to off the interstate, and it was easy to get back on. Overall, a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r193016802-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>193016802</t>
+  </si>
+  <si>
+    <t>02/03/2014</t>
+  </si>
+  <si>
+    <t>Not Worth the money</t>
+  </si>
+  <si>
+    <t>There were very few good things about this hotel. The staff was pleasant and they offer free WiFi and free breakfast. Besides that the hotel seemed dirty. There are stains on the carpet, my lampshade in the room was broken, the comforter had a hole in it, you could feel the springs in the bed. The elevator is very slow. It is hard to find. The parking lot was icy. I will not be back again.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r188703149-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -854,9 +1334,6 @@
     <t>Made the pre-paid reservation online for Christmas night.  Arrived later than planned.  Check-in was a breeze, simply identified myself, signed the paper and took the keys.  Price was very good.  Facility just as expected, clean, everything worked, bed great.  Hot breakfast better than most.  Will definitely plan to stay again whenever in Denver.  Wanted to use the pool, but arrived too late in evening and left too early.</t>
   </si>
   <si>
-    <t>December 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r183310123-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -875,9 +1352,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Khurshid K, Owner at Econo Lodge Tech Center, responded to this reviewResponded December 24, 2015</t>
   </si>
   <si>
@@ -905,6 +1379,50 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r177072525-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>177072525</t>
+  </si>
+  <si>
+    <t>09/13/2013</t>
+  </si>
+  <si>
+    <t>Not the best -- Look elsewhere</t>
+  </si>
+  <si>
+    <t>First room (labeled non-smoking) reeked of cigarette smoke.  I immediately called the desk and they responded swiftly with another room on the same floor, even coming up to make sure we were happy with same and to give us keys.  Second room was far from  pristine however, very worn, with slight cigarette smell, enough to cause throat irritation after overnight exposure.  Frig freezer unit was coated with thick ice, bed was hard and sloped toward the middle, and light bulbs were out.  Upholstery on chair was threadbare on the arms.  The only thing great about this hotel is its super-sized swimming pool at a temperature just right for a relaxing swim. Go here only if you value swimming or if everything else in the tech center area is full.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>First room (labeled non-smoking) reeked of cigarette smoke.  I immediately called the desk and they responded swiftly with another room on the same floor, even coming up to make sure we were happy with same and to give us keys.  Second room was far from  pristine however, very worn, with slight cigarette smell, enough to cause throat irritation after overnight exposure.  Frig freezer unit was coated with thick ice, bed was hard and sloped toward the middle, and light bulbs were out.  Upholstery on chair was threadbare on the arms.  The only thing great about this hotel is its super-sized swimming pool at a temperature just right for a relaxing swim. Go here only if you value swimming or if everything else in the tech center area is full.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r173020867-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>173020867</t>
+  </si>
+  <si>
+    <t>08/19/2013</t>
+  </si>
+  <si>
+    <t>Terrible customer service and lots of noise!</t>
+  </si>
+  <si>
+    <t>This hotel does not provide great customer service.  I had used points that I had earned to stay at this hotel.  The room was great, breakfast was okay, but one night when there was excessive noise in the room next to me, I had to call down to the front desk 3xs and when that didn't work, I went down to speak to the person working.  He was purposely avoiding my calls (by not answering when I called) and then said there was nothing he could do about the noise and it was past 10 PM.  I told him that if he wasn't willing to make it stop, I would call the police.  Well...this put a fire under him and sure enough, the noise stopped.  He initially stated that there was nothing that could be done about the noise and refused to call the police.  He hadn't actually called the room to tell them to be quiet, so once he did that, the noise stopped.
+Also, upon check in, I had asked the manager if it would be possible to match the price of the hotel next door (Days Inn) as I had just come from there.  He said it was possible, but that he ideally wanted more money for the room.  When I was due to check out, I asked about the price matching and the manager stated that he never told me that he would match Days Inn's...This hotel does not provide great customer service.  I had used points that I had earned to stay at this hotel.  The room was great, breakfast was okay, but one night when there was excessive noise in the room next to me, I had to call down to the front desk 3xs and when that didn't work, I went down to speak to the person working.  He was purposely avoiding my calls (by not answering when I called) and then said there was nothing he could do about the noise and it was past 10 PM.  I told him that if he wasn't willing to make it stop, I would call the police.  Well...this put a fire under him and sure enough, the noise stopped.  He initially stated that there was nothing that could be done about the noise and refused to call the police.  He hadn't actually called the room to tell them to be quiet, so once he did that, the noise stopped.Also, upon check in, I had asked the manager if it would be possible to match the price of the hotel next door (Days Inn) as I had just come from there.  He said it was possible, but that he ideally wanted more money for the room.  When I was due to check out, I asked about the price matching and the manager stated that he never told me that he would match Days Inn's price.  So...I checked out!  I'll never stay at this hotel again.This hotel is a Choice Hotel where I am at Diamond status.  This particular hotel does not appreciate that people are loyal to their brand and do not extend any amount of courtesy and respect.  I shouldn't have needed to call the front desk more than once about the noise and I certainly shouldn't have needed to get out of bed and go down to the front desk.  It's either laziness or lack of concern or perhaps both, which is why I needed to be persistent about the noise.Stay elsewhere!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>This hotel does not provide great customer service.  I had used points that I had earned to stay at this hotel.  The room was great, breakfast was okay, but one night when there was excessive noise in the room next to me, I had to call down to the front desk 3xs and when that didn't work, I went down to speak to the person working.  He was purposely avoiding my calls (by not answering when I called) and then said there was nothing he could do about the noise and it was past 10 PM.  I told him that if he wasn't willing to make it stop, I would call the police.  Well...this put a fire under him and sure enough, the noise stopped.  He initially stated that there was nothing that could be done about the noise and refused to call the police.  He hadn't actually called the room to tell them to be quiet, so once he did that, the noise stopped.
+Also, upon check in, I had asked the manager if it would be possible to match the price of the hotel next door (Days Inn) as I had just come from there.  He said it was possible, but that he ideally wanted more money for the room.  When I was due to check out, I asked about the price matching and the manager stated that he never told me that he would match Days Inn's...This hotel does not provide great customer service.  I had used points that I had earned to stay at this hotel.  The room was great, breakfast was okay, but one night when there was excessive noise in the room next to me, I had to call down to the front desk 3xs and when that didn't work, I went down to speak to the person working.  He was purposely avoiding my calls (by not answering when I called) and then said there was nothing he could do about the noise and it was past 10 PM.  I told him that if he wasn't willing to make it stop, I would call the police.  Well...this put a fire under him and sure enough, the noise stopped.  He initially stated that there was nothing that could be done about the noise and refused to call the police.  He hadn't actually called the room to tell them to be quiet, so once he did that, the noise stopped.Also, upon check in, I had asked the manager if it would be possible to match the price of the hotel next door (Days Inn) as I had just come from there.  He said it was possible, but that he ideally wanted more money for the room.  When I was due to check out, I asked about the price matching and the manager stated that he never told me that he would match Days Inn's price.  So...I checked out!  I'll never stay at this hotel again.This hotel is a Choice Hotel where I am at Diamond status.  This particular hotel does not appreciate that people are loyal to their brand and do not extend any amount of courtesy and respect.  I shouldn't have needed to call the front desk more than once about the noise and I certainly shouldn't have needed to get out of bed and go down to the front desk.  It's either laziness or lack of concern or perhaps both, which is why I needed to be persistent about the noise.Stay elsewhere!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r171541243-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -963,6 +1481,36 @@
   </si>
   <si>
     <t>While this chain isn't the fanciest, this Denver area is pricey even for the lesser chains but this one is better than several others nearby. The lobby and attached breakfast area are small and dark, and right next to the pool but we didn't notice any strong chlorine smell. The front desk clerk was friendly and even offered coffee and juice from the breakfast area. Located in a commercial area, traffic was not busy in the evening but no view of the mountains and almost all of the parking was in the back of the hotel (so a bit of a hike). We stayed on the top floor based on a Trip Advisor review and as promised, it was quiet. Maybe we received one of the spruced up rooms as it was very clean (no mold) with little wear and tear, although the mattress was starting to bow in the middle. The breakfast, while not great, was better than most fast-food fare but was not well stocked (they ran out of coffee by 7 A.M. and didn't brew more). Would stay again if we could get the same room with the fridge and microwave on the top floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r158579462-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>158579462</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>When a bargain isn't a bargain</t>
+  </si>
+  <si>
+    <t>We picked this hotel because of the rate; it was cheap--in more ways than one. Dirty carpet and shower (mold or filth in corners). Tiles on bathroom floor broken and in one case sunken. Front desk person was OK though not exactly warm.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r149547642-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>149547642</t>
+  </si>
+  <si>
+    <t>01/12/2013</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>Mostly the hotel and staff far surpassed what I had expected for the money!  Very nice room, very good staff.  The hotel seemed to have been recently spruced up.  didn't get to try the breakfast.  Great price!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r142416893-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
@@ -1021,6 +1569,39 @@
 Other tips: there's a Walmart Supercentre about 5 minutes away though you'd never guess it. Turn left out of the hotel, go down to the end and left at the lights into S Havana, next right into E Easter and then first left into S Kenton and...We stay here most years when we fly into Denver and our latest stay was in July 2012. The motel isn't too easy to find (drive south on I-25 and turn left at Junction 196 onto Dry Creek, then take the first left (after the northbound access to I-25) onto Clinton and follow it round an S-shape until you meet the right turn into East Geddes Ave. It's on the left. The motel is family run and the reception clerk has been the same one we have seen every year for several years. The location is really, really quiet despite being close to the Interstate. The hotel is clean and comfortable, well-priced and the hot breakfast more than adequate. If you're heading south it's a perfect location to get out of Denver without suffering the heavy traffic that seems endemic to the city. You can be in Castle Rock in no time and Colorado Springs isn't much further. Personally, I think it's worth the effort to drive here after flying into Denver International Airport because the next day you can be up and out of the city area in no time at all.Other tips: there's a Walmart Supercentre about 5 minutes away though you'd never guess it. Turn left out of the hotel, go down to the end and left at the lights into S Havana, next right into E Easter and then first left into S Kenton and the road snakes round to the Walmart car-park. More shopping and restaurants are 10 minutes away: head back to Dry Creek and go under I-25. Keep going to Quebec and then turn left down to County Line and go over. Malls etc on either side inc Country Buffet on the left.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r133592315-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>133592315</t>
+  </si>
+  <si>
+    <t>07/06/2012</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>I stayed here one night on a recent visit to Denver. It was a Saturday night, so I was very surprised at how quiet it was. I found the rooms to be clean and comfortable with a nice sized bed. Breakfast is complimentary Continental style - nothing fancy, but it was good to be able to grab something quickly without having to leave the hotel (especially because there's not much except for other hotels around). This location is right off of the interstate, which was very convenient. Really good value overall - I would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r132782157-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>132782157</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Quiet and Clean</t>
+  </si>
+  <si>
+    <t>Stayed here two nights.  Very quiet, amazing hot breakfast with eggs, bacon and sausage and it's conveniently located just south of Denver.  We looked around and Denver was expensive compared to the surrounding areas which is why we stayed here.  This is a nice hotel, good for those on a budget or not, with a nice sized pool and good breakfast.  Rooms are large and updated.  Cleaning staff did knock and just open our door though as she left her soda in our room while she was cleaning.  That was a little concerning since it's inappropriate to just let yourself in but other than that, no problems.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r131957441-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -1036,9 +1617,6 @@
     <t>I found this hotel to be nice and quiet at night. The beds could have had better mattresses but for the one night that we stayed they were ok. My grandson enjoyed the spacious pool. The breakfast had a variety of items and drinks. However, the eggs were overcooked and the bacon was not very good. All and all we would stay there again .</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r131586815-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
   </si>
   <si>
@@ -1048,9 +1626,6 @@
     <t>06/08/2012</t>
   </si>
   <si>
-    <t>Good Value</t>
-  </si>
-  <si>
     <t>Have stayed here twice and they just just renovated some of it. First time we had a sofa with a shredded arm and this time the desk chair had the arm upholstery shredded down to the wood frame - aside from that the rooms were great, comfortable beds, great wifi, clean (no bedbugs from our experience). Jody at the front desk is very friendly and helpful. Breakfast is not one of the better spreads in that they lack many choices.For the price this is a good value depending on the room you get.We will continue to stay here.</t>
   </si>
   <si>
@@ -1067,6 +1642,58 @@
   </si>
   <si>
     <t>Upon checking in, seemed okay. Large pool and spa,rooms a bit cramped, stale smoke smell in hallways.Later in the evening while relaxing in bed watching TV, found several bedbugs. Front desk offered to move us to another room, but we didn't feel comfortable doing that so checked out. Husband now has several red welts on neck. Hoping they didn't accompany us home. Beware.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r130972229-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>130972229</t>
+  </si>
+  <si>
+    <t>05/30/2012</t>
+  </si>
+  <si>
+    <t>The room you get matters here.</t>
+  </si>
+  <si>
+    <t>Typical Quality Inn, but your room location is critical here.  Upon check-in, I was given a first floor room with a jetted tub in the sleeping area, an amenity the property views as an upgrade.
+Shortly after checking in, cigarette smoke began wafting into my non-smoking room via the vent in the bathroom, which necessitated keeping the fan on.
+The real problem occurred after midnight, when the occupants of the room upstairs decided to enjoy a late-night whirlpool bath above my bed.  The plumbing was surprisingly loud and it takes a long time to fill one of those tubs.  I waited patiently, and the sound of water running finally stopped.  Unfortunately, it was immediately replaced by the churning of the whirlpool, which sounded like heavy machinery.  
+Very cranky and tired, I went to the front desk and explained that the room was unacceptable.  The night manager, a poised and understanding woman, immediately reassigned me to a top floor room.  This room did not have a whirlpool (which I didn't want anyway), but it did have a large new flat screen TV.
+I was completely satisfied with this room for the remainder of my stay.  The front desk staff was consistently pleasant and helpful.  The pool / spa area is dreary, but you don't stay at Quality Inn for those amenities anyway.  Complimentary breakfast is what you expect it to be.
+If you stay here, it's worth asking for a room...Typical Quality Inn, but your room location is critical here.  Upon check-in, I was given a first floor room with a jetted tub in the sleeping area, an amenity the property views as an upgrade.Shortly after checking in, cigarette smoke began wafting into my non-smoking room via the vent in the bathroom, which necessitated keeping the fan on.The real problem occurred after midnight, when the occupants of the room upstairs decided to enjoy a late-night whirlpool bath above my bed.  The plumbing was surprisingly loud and it takes a long time to fill one of those tubs.  I waited patiently, and the sound of water running finally stopped.  Unfortunately, it was immediately replaced by the churning of the whirlpool, which sounded like heavy machinery.  Very cranky and tired, I went to the front desk and explained that the room was unacceptable.  The night manager, a poised and understanding woman, immediately reassigned me to a top floor room.  This room did not have a whirlpool (which I didn't want anyway), but it did have a large new flat screen TV.I was completely satisfied with this room for the remainder of my stay.  The front desk staff was consistently pleasant and helpful.  The pool / spa area is dreary, but you don't stay at Quality Inn for those amenities anyway.  Complimentary breakfast is what you expect it to be.If you stay here, it's worth asking for a room without a whirlpool upstairs.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Typical Quality Inn, but your room location is critical here.  Upon check-in, I was given a first floor room with a jetted tub in the sleeping area, an amenity the property views as an upgrade.
+Shortly after checking in, cigarette smoke began wafting into my non-smoking room via the vent in the bathroom, which necessitated keeping the fan on.
+The real problem occurred after midnight, when the occupants of the room upstairs decided to enjoy a late-night whirlpool bath above my bed.  The plumbing was surprisingly loud and it takes a long time to fill one of those tubs.  I waited patiently, and the sound of water running finally stopped.  Unfortunately, it was immediately replaced by the churning of the whirlpool, which sounded like heavy machinery.  
+Very cranky and tired, I went to the front desk and explained that the room was unacceptable.  The night manager, a poised and understanding woman, immediately reassigned me to a top floor room.  This room did not have a whirlpool (which I didn't want anyway), but it did have a large new flat screen TV.
+I was completely satisfied with this room for the remainder of my stay.  The front desk staff was consistently pleasant and helpful.  The pool / spa area is dreary, but you don't stay at Quality Inn for those amenities anyway.  Complimentary breakfast is what you expect it to be.
+If you stay here, it's worth asking for a room...Typical Quality Inn, but your room location is critical here.  Upon check-in, I was given a first floor room with a jetted tub in the sleeping area, an amenity the property views as an upgrade.Shortly after checking in, cigarette smoke began wafting into my non-smoking room via the vent in the bathroom, which necessitated keeping the fan on.The real problem occurred after midnight, when the occupants of the room upstairs decided to enjoy a late-night whirlpool bath above my bed.  The plumbing was surprisingly loud and it takes a long time to fill one of those tubs.  I waited patiently, and the sound of water running finally stopped.  Unfortunately, it was immediately replaced by the churning of the whirlpool, which sounded like heavy machinery.  Very cranky and tired, I went to the front desk and explained that the room was unacceptable.  The night manager, a poised and understanding woman, immediately reassigned me to a top floor room.  This room did not have a whirlpool (which I didn't want anyway), but it did have a large new flat screen TV.I was completely satisfied with this room for the remainder of my stay.  The front desk staff was consistently pleasant and helpful.  The pool / spa area is dreary, but you don't stay at Quality Inn for those amenities anyway.  Complimentary breakfast is what you expect it to be.If you stay here, it's worth asking for a room without a whirlpool upstairs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r127805577-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>127805577</t>
+  </si>
+  <si>
+    <t>04/13/2012</t>
+  </si>
+  <si>
+    <t>We were happy here</t>
+  </si>
+  <si>
+    <t>I had to check google maps to see if I had the right hotel upon reading the reviews. Turns out I have the right place. I'm shocked so many people had a bad experience here! This was a nice place, with clean bedding, clean rooms, and friendly service. The bathrooms were very large!It *DID* look like they had just finished some renovations on the second floor when we stayed in August 2011. Perhaps we were lucky? It was a little tricky to get to off of the highway, but we found it without too much trouble. We paid $63 for our night's stay, and we were very pleased about it. It was a great value for what we got.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>I had to check google maps to see if I had the right hotel upon reading the reviews. Turns out I have the right place. I'm shocked so many people had a bad experience here! This was a nice place, with clean bedding, clean rooms, and friendly service. The bathrooms were very large!It *DID* look like they had just finished some renovations on the second floor when we stayed in August 2011. Perhaps we were lucky? It was a little tricky to get to off of the highway, but we found it without too much trouble. We paid $63 for our night's stay, and we were very pleased about it. It was a great value for what we got.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r124475920-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
@@ -1137,6 +1764,46 @@
 4. Batteries missing from the remote for the TV
 5. The phone was filthy, handle was very dirty as were the numbers
 6. Hair...This hotel is awful, it was the very worst lodging experience I have EVER experienced. I thought Best Western was a reputable motel chain, having never stayed in one before this was my first experience with one. When I checked in the night clerk was very surly, when I approached the front desk I told her I had a reservation - she sighed, rolled her eyes and said I'll be right back. Then she walked over to the continental breakfast area and returned, don't know what she did over there as she just walked over there and then returned. She was rude and obviously didn't want to deal with customers at that time. Honestly, I don't care if  the staff are overly friendly or not, I just want a nice, clean place to sleep.The room was large and it was quiet. I'm just going to make a list of what I found in that room, it was so disturbing to me.1. Looked like a previous guest threw a piece of pizza on the wall, there was reddish food stuck to the wall in the shape of a triangle2. A quarter size blood stain on the box spring3. An empty carton of cigarettes, inside a King Soopers shopping bag left in the nightstand4. Batteries missing from the remote for the TV5. The phone was filthy, handle was very dirty as were the numbers6. Hair dryer handle filthy and almost black (white dryer)7. Coffee maker dirty8. All the light switches were filthy9. Lampshades were all very yellowed and cracked, there was hair hanging from one of them10. Crud on the bathroom wall - I shudder to think what it all was11. Very uncomfortable bed - hole in the couchAs I got ready to go to sleep in this dump I got into bed and got to thinking...if this room is so filthy, I wonder if they even change the sheets between guests. Needless to say I had a very difficult time going to sleep, left all the lights on because it was the epitome of a flea bag motel.The continental breakfast consisted of bread, bagels, waffles, juice and coffee and some dry cereal. Was disappointed that there were no donuts.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r5418763-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>5418763</t>
+  </si>
+  <si>
+    <t>07/02/2006</t>
+  </si>
+  <si>
+    <t>Hotel doesn't live up to potential</t>
+  </si>
+  <si>
+    <t>This hotel left much to be desired.  Although it was reasonably clean and modern, the details were just not there.  We wanted to leave our valuables in a safe while we weren't in the room.  According to Colorado law, all innkeepers must provide such safe storage.  When we went to the front desk, the manager said that he only had 3 safes, and because the hotel was so full, he didn't have one for us.  It was only when I said that I would be pretty upset if my valuables were stolen, that he offered to keep them locked in his personal office.  Although this made us uncomfortable, we felt that this was our only good option, besides locking them in our car.  
+Our bathroom was so small that the door nearly touched the toilet when it opened.  It was claustrophobic.  The room did not have the Yellow Pages L-Z, only two books of A-K (which makes it difficult when you are looking for a business that begins with "M").  When we arrived late several nights and the few parking spaces in front of the hotel were broken, we parked in the back and used our keycard to get into the locked back door.  The card scanner didn't function and we had to walk around the hotel in the dark.  
+At midnight, I called for a wake-up call for the next morning, and no one answered at the front desk....This hotel left much to be desired.  Although it was reasonably clean and modern, the details were just not there.  We wanted to leave our valuables in a safe while we weren't in the room.  According to Colorado law, all innkeepers must provide such safe storage.  When we went to the front desk, the manager said that he only had 3 safes, and because the hotel was so full, he didn't have one for us.  It was only when I said that I would be pretty upset if my valuables were stolen, that he offered to keep them locked in his personal office.  Although this made us uncomfortable, we felt that this was our only good option, besides locking them in our car.  Our bathroom was so small that the door nearly touched the toilet when it opened.  It was claustrophobic.  The room did not have the Yellow Pages L-Z, only two books of A-K (which makes it difficult when you are looking for a business that begins with "M").  When we arrived late several nights and the few parking spaces in front of the hotel were broken, we parked in the back and used our keycard to get into the locked back door.  The card scanner didn't function and we had to walk around the hotel in the dark.  At midnight, I called for a wake-up call for the next morning, and no one answered at the front desk.  I called for 5 straight minutes and finally went down personally.  No one was there.  The night attendant was talking with a girl outside the hotel and finally noticed me standing there in my pajamas.  The continental breakfast consisted of watery juices, 2% milk, coffee, stale bread and bagels, cereal, and jam/cream cheese/butter.  I would probably not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel left much to be desired.  Although it was reasonably clean and modern, the details were just not there.  We wanted to leave our valuables in a safe while we weren't in the room.  According to Colorado law, all innkeepers must provide such safe storage.  When we went to the front desk, the manager said that he only had 3 safes, and because the hotel was so full, he didn't have one for us.  It was only when I said that I would be pretty upset if my valuables were stolen, that he offered to keep them locked in his personal office.  Although this made us uncomfortable, we felt that this was our only good option, besides locking them in our car.  
+Our bathroom was so small that the door nearly touched the toilet when it opened.  It was claustrophobic.  The room did not have the Yellow Pages L-Z, only two books of A-K (which makes it difficult when you are looking for a business that begins with "M").  When we arrived late several nights and the few parking spaces in front of the hotel were broken, we parked in the back and used our keycard to get into the locked back door.  The card scanner didn't function and we had to walk around the hotel in the dark.  
+At midnight, I called for a wake-up call for the next morning, and no one answered at the front desk....This hotel left much to be desired.  Although it was reasonably clean and modern, the details were just not there.  We wanted to leave our valuables in a safe while we weren't in the room.  According to Colorado law, all innkeepers must provide such safe storage.  When we went to the front desk, the manager said that he only had 3 safes, and because the hotel was so full, he didn't have one for us.  It was only when I said that I would be pretty upset if my valuables were stolen, that he offered to keep them locked in his personal office.  Although this made us uncomfortable, we felt that this was our only good option, besides locking them in our car.  Our bathroom was so small that the door nearly touched the toilet when it opened.  It was claustrophobic.  The room did not have the Yellow Pages L-Z, only two books of A-K (which makes it difficult when you are looking for a business that begins with "M").  When we arrived late several nights and the few parking spaces in front of the hotel were broken, we parked in the back and used our keycard to get into the locked back door.  The card scanner didn't function and we had to walk around the hotel in the dark.  At midnight, I called for a wake-up call for the next morning, and no one answered at the front desk.  I called for 5 straight minutes and finally went down personally.  No one was there.  The night attendant was talking with a girl outside the hotel and finally noticed me standing there in my pajamas.  The continental breakfast consisted of watery juices, 2% milk, coffee, stale bread and bagels, cereal, and jam/cream cheese/butter.  I would probably not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r3533824-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
+  </si>
+  <si>
+    <t>3533824</t>
+  </si>
+  <si>
+    <t>06/05/2005</t>
+  </si>
+  <si>
+    <t>It was average</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and that is all I can say that was good about this hotel.  I wasn't expected the Ritz-Carlton at the price I was paying, but I was expecting better than what I got.  There was mold on the walls and the ceiling was cracking in the bathroom, the toilet would barely flush when used, causing it to clog everytime, the alarm clock didn't work, there was food left in the fridge from the previous guests, the knob on the iron was broken off, so I didn't know what setting it was on, same for the fridge, causing all our drinks to freeze.  At the time we were there, the hot tub wasn't working and it was green.  Make sure to wear your flip flops when going to the pool, there was green mold on the pool deck.  I was disappointed with the selection they had for the breakfast.  There was juice, coffee, tea and hot chocolate, 3 types of cereal (Special K, Fruit Loops and Raisan Bran) eggo type waffles,instant oatmeal, bread for toast and bagels.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and that is all I can say that was good about this hotel.  I wasn't expected the Ritz-Carlton at the price I was paying, but I was expecting better than what I got.  There was mold on the walls and the ceiling was cracking in the bathroom, the toilet would barely flush when used, causing it to clog everytime, the alarm clock didn't work, there was food left in the fridge from the previous guests, the knob on the iron was broken off, so I didn't know what setting it was on, same for the fridge, causing all our drinks to freeze.  At the time we were there, the hot tub wasn't working and it was green.  Make sure to wear your flip flops when going to the pool, there was green mold on the pool deck.  I was disappointed with the selection they had for the breakfast.  There was juice, coffee, tea and hot chocolate, 3 types of cereal (Special K, Fruit Loops and Raisan Bran) eggo type waffles,instant oatmeal, bread for toast and bagels.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g609128-d80997-r2291232-Econo_Lodge_Tech_Center-Centennial_Colorado.html</t>
@@ -1701,7 +2368,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -1760,12 +2427,8 @@
       <c r="M3" t="n">
         <v>3</v>
       </c>
-      <c r="N3" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
-      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
@@ -1794,52 +2457,48 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>60</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>62</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>63</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>64</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>65</v>
-      </c>
-      <c r="O4" t="s">
-        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>3</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1855,54 +2514,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="L5" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
-      </c>
       <c r="O5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>4</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1918,48 +2571,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
-      </c>
-      <c r="L6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>73</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1975,43 +2632,41 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>81</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>82</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>83</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>84</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>85</v>
       </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
-      </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
       </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>4</v>
@@ -2022,7 +2677,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
@@ -2038,46 +2693,44 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>87</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>88</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>89</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>90</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>91</v>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -2085,7 +2738,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2101,7 +2754,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2110,37 +2763,37 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2148,7 +2801,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2164,54 +2817,48 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="s">
+        <v>105</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>99</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
-        <v>100</v>
-      </c>
-      <c r="J10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K10" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" t="s">
-        <v>103</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
       <c r="O10" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>4</v>
-      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>4</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
@@ -2227,7 +2874,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2236,39 +2883,45 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="O11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
@@ -2284,7 +2937,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2293,39 +2946,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -2341,7 +2998,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2350,39 +3007,45 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
         <v>117</v>
       </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L13" t="s">
-        <v>120</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
       <c r="O13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14">
@@ -2398,7 +3061,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2407,39 +3070,45 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -2455,7 +3124,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2464,37 +3133,37 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O15" t="s">
-        <v>86</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2502,7 +3171,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -2518,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2527,35 +3196,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2563,7 +3234,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -2579,7 +3250,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2588,43 +3259,45 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="O17" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
       <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
         <v>144</v>
-      </c>
-      <c r="X17" t="s">
-        <v>145</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -2640,37 +3313,45 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>147</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>148</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>149</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>150</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>151</v>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+      <c r="O18" t="s">
+        <v>65</v>
+      </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
@@ -2714,37 +3395,27 @@
         <v>157</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>159</v>
-      </c>
-      <c r="X19" t="s">
-        <v>160</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="20">
@@ -2760,34 +3431,34 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s">
         <v>162</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>163</v>
       </c>
-      <c r="J20" t="s">
-        <v>164</v>
-      </c>
-      <c r="K20" t="s">
-        <v>165</v>
-      </c>
-      <c r="L20" t="s">
-        <v>166</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>167</v>
-      </c>
       <c r="O20" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2801,7 +3472,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
@@ -2817,52 +3488,48 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" t="s">
+        <v>166</v>
+      </c>
+      <c r="K21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s">
         <v>168</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" t="s">
-        <v>170</v>
-      </c>
-      <c r="L21" t="s">
-        <v>171</v>
-      </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O21" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>1</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22">
@@ -2878,56 +3545,54 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
         <v>173</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
         <v>174</v>
       </c>
-      <c r="J22" t="s">
-        <v>175</v>
-      </c>
-      <c r="K22" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" t="s">
-        <v>177</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="O22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
         <v>3</v>
       </c>
-      <c r="N22" t="s">
-        <v>167</v>
-      </c>
-      <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s">
-        <v>178</v>
-      </c>
-      <c r="X22" t="s">
-        <v>179</v>
-      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
@@ -2943,7 +3608,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2952,49 +3617,35 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="J23" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>186</v>
-      </c>
-      <c r="O23" t="s">
-        <v>86</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>159</v>
-      </c>
-      <c r="X23" t="s">
-        <v>160</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
     </row>
     <row r="24">
@@ -3010,7 +3661,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3019,45 +3670,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
@@ -3073,7 +3718,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3082,37 +3727,37 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
         <v>190</v>
       </c>
-      <c r="K25" t="s">
-        <v>196</v>
-      </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="O25" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q25" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="n">
         <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -3120,7 +3765,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
@@ -3136,7 +3781,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3145,35 +3790,35 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J26" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>185</v>
+      </c>
+      <c r="O26" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
         <v>3</v>
       </c>
-      <c r="N26" t="s">
-        <v>186</v>
-      </c>
-      <c r="O26" t="s">
-        <v>86</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q26" t="s"/>
-      <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -3181,7 +3826,7 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
@@ -3197,7 +3842,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3206,25 +3851,25 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="K27" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3236,7 +3881,7 @@
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -3244,7 +3889,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
@@ -3260,52 +3905,48 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>205</v>
+      </c>
+      <c r="J28" t="s">
+        <v>206</v>
+      </c>
+      <c r="K28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L28" t="s">
         <v>208</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
         <v>209</v>
       </c>
-      <c r="J28" t="s">
-        <v>210</v>
-      </c>
-      <c r="K28" t="s">
-        <v>211</v>
-      </c>
-      <c r="L28" t="s">
-        <v>212</v>
-      </c>
-      <c r="M28" t="n">
-        <v>2</v>
-      </c>
-      <c r="N28" t="s">
-        <v>213</v>
-      </c>
       <c r="O28" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
@@ -3321,34 +3962,34 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>211</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>212</v>
+      </c>
+      <c r="J29" t="s">
+        <v>213</v>
+      </c>
+      <c r="K29" t="s">
+        <v>214</v>
+      </c>
+      <c r="L29" t="s">
         <v>215</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
         <v>216</v>
       </c>
-      <c r="J29" t="s">
-        <v>217</v>
-      </c>
-      <c r="K29" t="s">
-        <v>218</v>
-      </c>
-      <c r="L29" t="s">
-        <v>219</v>
-      </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="s">
-        <v>220</v>
-      </c>
       <c r="O29" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3359,8 +4000,12 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X29" t="s">
+        <v>218</v>
+      </c>
       <c r="Y29" t="s">
         <v>219</v>
       </c>
@@ -3378,54 +4023,44 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
         <v>221</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>222</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>223</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>224</v>
       </c>
-      <c r="L30" t="s">
-        <v>225</v>
-      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
-      <c r="N30" t="s">
-        <v>220</v>
-      </c>
-      <c r="O30" t="s">
-        <v>66</v>
-      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
@@ -3441,41 +4076,43 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>226</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>227</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>228</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>229</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>230</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
         <v>231</v>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="s">
-        <v>220</v>
-      </c>
       <c r="O31" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="n">
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="S31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>3</v>
@@ -3483,10 +4120,14 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>232</v>
+      </c>
+      <c r="X31" t="s">
+        <v>233</v>
+      </c>
       <c r="Y31" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
@@ -3502,7 +4143,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3511,34 +4152,30 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
-      <c r="P32" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
         <v>1</v>
@@ -3549,7 +4186,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
@@ -3565,7 +4202,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3574,45 +4211,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34">
@@ -3628,7 +4259,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3637,45 +4268,39 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
         <v>247</v>
       </c>
-      <c r="L34" t="s">
-        <v>248</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="s">
-        <v>249</v>
-      </c>
       <c r="O34" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="n">
-        <v>3</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1</v>
-      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>4</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35">
@@ -3691,44 +4316,44 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
         <v>250</v>
       </c>
-      <c r="G35" t="s">
-        <v>46</v>
-      </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-      <c r="I35" t="s">
-        <v>251</v>
-      </c>
-      <c r="J35" t="s">
-        <v>252</v>
-      </c>
       <c r="K35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="O35" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3736,7 +4361,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36">
@@ -3752,7 +4377,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3761,39 +4386,47 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J36" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K36" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L36" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="O36" t="s">
-        <v>86</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>65</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
       <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>263</v>
+      </c>
+      <c r="X36" t="s">
+        <v>264</v>
+      </c>
       <c r="Y36" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
@@ -3809,7 +4442,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -3818,37 +4451,37 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="s"/>
-      <c r="O37" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>247</v>
+      </c>
+      <c r="O37" t="s">
+        <v>92</v>
+      </c>
       <c r="P37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
       <c r="R37" t="n">
         <v>3</v>
       </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3856,7 +4489,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
@@ -3872,7 +4505,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -3881,41 +4514,35 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J38" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="O38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
       <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3923,7 +4550,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
@@ -3939,7 +4566,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -3948,25 +4575,25 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
+        <v>278</v>
+      </c>
+      <c r="J39" t="s">
+        <v>279</v>
+      </c>
+      <c r="K39" t="s">
+        <v>280</v>
+      </c>
+      <c r="L39" t="s">
+        <v>281</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
         <v>276</v>
       </c>
-      <c r="J39" t="s">
-        <v>277</v>
-      </c>
-      <c r="K39" t="s">
-        <v>278</v>
-      </c>
-      <c r="L39" t="s">
-        <v>279</v>
-      </c>
-      <c r="M39" t="n">
-        <v>4</v>
-      </c>
-      <c r="N39" t="s">
-        <v>280</v>
-      </c>
       <c r="O39" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -3974,12 +4601,8 @@
       <c r="Q39" t="n">
         <v>4</v>
       </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -3988,13 +4611,13 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
+        <v>232</v>
+      </c>
+      <c r="X39" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y39" t="s">
         <v>282</v>
-      </c>
-      <c r="X39" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -4010,48 +4633,54 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>283</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>284</v>
+      </c>
+      <c r="J40" t="s">
         <v>285</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>286</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>287</v>
       </c>
-      <c r="K40" t="s">
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>288</v>
       </c>
-      <c r="L40" t="s">
-        <v>289</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="s">
-        <v>290</v>
-      </c>
       <c r="O40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41">
@@ -4067,44 +4696,40 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>289</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>290</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
         <v>291</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>292</v>
       </c>
-      <c r="J41" t="s">
-        <v>293</v>
-      </c>
-      <c r="K41" t="s">
-        <v>294</v>
-      </c>
-      <c r="L41" t="s">
-        <v>295</v>
-      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
         <v>1</v>
       </c>
@@ -4118,7 +4743,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
@@ -4134,7 +4759,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4143,49 +4768,39 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="J42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="K42" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L42" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43">
@@ -4201,7 +4816,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4210,49 +4825,49 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="O43" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" t="n">
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
         <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>304</v>
+      </c>
+      <c r="X43" t="s">
+        <v>305</v>
+      </c>
       <c r="Y43" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="44">
@@ -4268,50 +4883,44 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
+        <v>307</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>308</v>
+      </c>
+      <c r="J44" t="s">
+        <v>309</v>
+      </c>
+      <c r="K44" t="s">
+        <v>310</v>
+      </c>
+      <c r="L44" t="s">
         <v>311</v>
       </c>
-      <c r="G44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H44" t="s">
-        <v>47</v>
-      </c>
-      <c r="I44" t="s">
-        <v>312</v>
-      </c>
-      <c r="J44" t="s">
-        <v>313</v>
-      </c>
-      <c r="K44" t="s">
-        <v>314</v>
-      </c>
-      <c r="L44" t="s">
-        <v>315</v>
-      </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
       </c>
-      <c r="Q44" t="n">
-        <v>2</v>
-      </c>
-      <c r="R44" t="n">
-        <v>3</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4319,7 +4928,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45">
@@ -4335,7 +4944,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4344,41 +4953,37 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="J45" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="K45" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>322</v>
+        <v>276</v>
       </c>
       <c r="O45" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P45" t="s"/>
       <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4386,7 +4991,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
@@ -4402,7 +5007,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4411,41 +5016,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N46" t="s">
         <v>322</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
       <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4453,7 +5052,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="47">
@@ -4469,7 +5068,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4478,39 +5077,37 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="J47" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K47" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
-      </c>
-      <c r="S47" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4518,7 +5115,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
@@ -4534,7 +5131,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4543,41 +5140,35 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N48" t="s">
         <v>334</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
-      </c>
-      <c r="P48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4585,7 +5176,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
@@ -4601,58 +5192,48 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>336</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>337</v>
+      </c>
+      <c r="J49" t="s">
+        <v>338</v>
+      </c>
+      <c r="K49" t="s">
+        <v>339</v>
+      </c>
+      <c r="L49" t="s">
         <v>340</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
-        <v>341</v>
-      </c>
-      <c r="J49" t="s">
-        <v>342</v>
-      </c>
-      <c r="K49" t="s">
-        <v>343</v>
-      </c>
-      <c r="L49" t="s">
-        <v>344</v>
-      </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
         <v>334</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="50">
@@ -4668,50 +5249,46 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>341</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>342</v>
+      </c>
+      <c r="J50" t="s">
+        <v>343</v>
+      </c>
+      <c r="K50" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" t="s">
         <v>345</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
-        <v>346</v>
-      </c>
-      <c r="J50" t="s">
-        <v>347</v>
-      </c>
-      <c r="K50" t="s">
-        <v>348</v>
-      </c>
-      <c r="L50" t="s">
-        <v>349</v>
-      </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="O50" t="s">
-        <v>281</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
       <c r="R50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
@@ -4719,7 +5296,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="51">
@@ -4735,44 +5312,52 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
+        <v>347</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>348</v>
+      </c>
+      <c r="J51" t="s">
+        <v>349</v>
+      </c>
+      <c r="K51" t="s">
+        <v>350</v>
+      </c>
+      <c r="L51" t="s">
         <v>351</v>
       </c>
-      <c r="G51" t="s">
-        <v>46</v>
-      </c>
-      <c r="H51" t="s">
-        <v>47</v>
-      </c>
-      <c r="I51" t="s">
-        <v>352</v>
-      </c>
-      <c r="J51" t="s">
-        <v>353</v>
-      </c>
-      <c r="K51" t="s">
-        <v>354</v>
-      </c>
-      <c r="L51" t="s">
-        <v>355</v>
-      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
+      <c r="N51" t="s">
+        <v>334</v>
+      </c>
+      <c r="O51" t="s">
+        <v>78</v>
+      </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
       <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
@@ -4788,58 +5373,48 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
+        <v>352</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>353</v>
+      </c>
+      <c r="J52" t="s">
+        <v>354</v>
+      </c>
+      <c r="K52" t="s">
+        <v>355</v>
+      </c>
+      <c r="L52" t="s">
         <v>356</v>
       </c>
-      <c r="G52" t="s">
-        <v>46</v>
-      </c>
-      <c r="H52" t="s">
-        <v>47</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
         <v>357</v>
       </c>
-      <c r="J52" t="s">
-        <v>358</v>
-      </c>
-      <c r="K52" t="s">
-        <v>359</v>
-      </c>
-      <c r="L52" t="s">
-        <v>360</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="s">
-        <v>361</v>
-      </c>
       <c r="O52" t="s">
-        <v>281</v>
-      </c>
-      <c r="P52" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="53">
@@ -4855,31 +5430,35 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>358</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>359</v>
+      </c>
+      <c r="J53" t="s">
+        <v>360</v>
+      </c>
+      <c r="K53" t="s">
+        <v>361</v>
+      </c>
+      <c r="L53" t="s">
+        <v>362</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="N53" t="s">
         <v>363</v>
       </c>
-      <c r="G53" t="s">
-        <v>46</v>
-      </c>
-      <c r="H53" t="s">
-        <v>47</v>
-      </c>
-      <c r="I53" t="s">
-        <v>364</v>
-      </c>
-      <c r="J53" t="s">
-        <v>365</v>
-      </c>
-      <c r="K53" t="s">
-        <v>366</v>
-      </c>
-      <c r="L53" t="s">
-        <v>367</v>
-      </c>
-      <c r="M53" t="n">
-        <v>2</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
@@ -4892,7 +5471,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54">
@@ -4908,44 +5487,2350 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
+        <v>365</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>366</v>
+      </c>
+      <c r="J54" t="s">
+        <v>367</v>
+      </c>
+      <c r="K54" t="s">
         <v>368</v>
       </c>
-      <c r="G54" t="s">
-        <v>46</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
+      <c r="L54" t="s">
         <v>369</v>
       </c>
-      <c r="J54" t="s">
-        <v>370</v>
-      </c>
-      <c r="K54" t="s">
-        <v>371</v>
-      </c>
-      <c r="L54" t="s">
-        <v>372</v>
-      </c>
       <c r="M54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
-      <c r="P54" t="s"/>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
-      <c r="S54" t="s"/>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1</v>
+      </c>
       <c r="T54" t="s"/>
-      <c r="U54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>370</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>371</v>
+      </c>
+      <c r="J55" t="s">
         <v>372</v>
+      </c>
+      <c r="K55" t="s">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s">
+        <v>374</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>375</v>
+      </c>
+      <c r="O55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>377</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>378</v>
+      </c>
+      <c r="J56" t="s">
+        <v>379</v>
+      </c>
+      <c r="K56" t="s">
+        <v>380</v>
+      </c>
+      <c r="L56" t="s">
+        <v>381</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>382</v>
+      </c>
+      <c r="O56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>383</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>384</v>
+      </c>
+      <c r="J57" t="s">
+        <v>385</v>
+      </c>
+      <c r="K57" t="s">
+        <v>386</v>
+      </c>
+      <c r="L57" t="s">
+        <v>387</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s">
+        <v>389</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>392</v>
+      </c>
+      <c r="J58" t="s">
+        <v>393</v>
+      </c>
+      <c r="K58" t="s">
+        <v>394</v>
+      </c>
+      <c r="L58" t="s">
+        <v>395</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>396</v>
+      </c>
+      <c r="O58" t="s">
+        <v>65</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>398</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>399</v>
+      </c>
+      <c r="J59" t="s">
+        <v>400</v>
+      </c>
+      <c r="K59" t="s">
+        <v>401</v>
+      </c>
+      <c r="L59" t="s">
+        <v>402</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>396</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>404</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>405</v>
+      </c>
+      <c r="J60" t="s">
+        <v>406</v>
+      </c>
+      <c r="K60" t="s">
+        <v>407</v>
+      </c>
+      <c r="L60" t="s">
+        <v>408</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>409</v>
+      </c>
+      <c r="O60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>410</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>411</v>
+      </c>
+      <c r="J61" t="s">
+        <v>412</v>
+      </c>
+      <c r="K61" t="s">
+        <v>413</v>
+      </c>
+      <c r="L61" t="s">
+        <v>414</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>421</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>423</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>424</v>
+      </c>
+      <c r="J63" t="s">
+        <v>425</v>
+      </c>
+      <c r="K63" t="s">
+        <v>426</v>
+      </c>
+      <c r="L63" t="s">
+        <v>427</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>428</v>
+      </c>
+      <c r="O63" t="s">
+        <v>78</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>429</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>430</v>
+      </c>
+      <c r="J64" t="s">
+        <v>431</v>
+      </c>
+      <c r="K64" t="s">
+        <v>432</v>
+      </c>
+      <c r="L64" t="s">
+        <v>433</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>428</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>434</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" t="s">
+        <v>436</v>
+      </c>
+      <c r="K65" t="s">
+        <v>437</v>
+      </c>
+      <c r="L65" t="s">
+        <v>438</v>
+      </c>
+      <c r="M65" t="n">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>439</v>
+      </c>
+      <c r="O65" t="s">
+        <v>389</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>440</v>
+      </c>
+      <c r="X65" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>443</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>444</v>
+      </c>
+      <c r="J66" t="s">
+        <v>445</v>
+      </c>
+      <c r="K66" t="s">
+        <v>446</v>
+      </c>
+      <c r="L66" t="s">
+        <v>447</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>448</v>
+      </c>
+      <c r="O66" t="s">
+        <v>78</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>449</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>450</v>
+      </c>
+      <c r="J67" t="s">
+        <v>451</v>
+      </c>
+      <c r="K67" t="s">
+        <v>452</v>
+      </c>
+      <c r="L67" t="s">
+        <v>453</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
+        <v>454</v>
+      </c>
+      <c r="O67" t="s">
+        <v>78</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>456</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>457</v>
+      </c>
+      <c r="J68" t="s">
+        <v>458</v>
+      </c>
+      <c r="K68" t="s">
+        <v>459</v>
+      </c>
+      <c r="L68" t="s">
+        <v>460</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>461</v>
+      </c>
+      <c r="O68" t="s">
+        <v>389</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>463</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>464</v>
+      </c>
+      <c r="J69" t="s">
+        <v>465</v>
+      </c>
+      <c r="K69" t="s">
+        <v>466</v>
+      </c>
+      <c r="L69" t="s">
+        <v>467</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="s">
+        <v>468</v>
+      </c>
+      <c r="O69" t="s">
+        <v>92</v>
+      </c>
+      <c r="P69" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>470</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>471</v>
+      </c>
+      <c r="J70" t="s">
+        <v>472</v>
+      </c>
+      <c r="K70" t="s">
+        <v>473</v>
+      </c>
+      <c r="L70" t="s">
+        <v>474</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s">
+        <v>65</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>476</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>477</v>
+      </c>
+      <c r="J71" t="s">
+        <v>478</v>
+      </c>
+      <c r="K71" t="s">
+        <v>479</v>
+      </c>
+      <c r="L71" t="s">
+        <v>480</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>481</v>
+      </c>
+      <c r="O71" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>483</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>484</v>
+      </c>
+      <c r="J72" t="s">
+        <v>485</v>
+      </c>
+      <c r="K72" t="s">
+        <v>486</v>
+      </c>
+      <c r="L72" t="s">
+        <v>487</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>481</v>
+      </c>
+      <c r="O72" t="s">
+        <v>65</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>488</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>489</v>
+      </c>
+      <c r="J73" t="s">
+        <v>490</v>
+      </c>
+      <c r="K73" t="s">
+        <v>491</v>
+      </c>
+      <c r="L73" t="s">
+        <v>492</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>454</v>
+      </c>
+      <c r="O73" t="s">
+        <v>78</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>494</v>
+      </c>
+      <c r="J74" t="s">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s">
+        <v>496</v>
+      </c>
+      <c r="L74" t="s">
+        <v>497</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>498</v>
+      </c>
+      <c r="O74" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75" t="s">
+        <v>501</v>
+      </c>
+      <c r="K75" t="s">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s">
+        <v>503</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>504</v>
+      </c>
+      <c r="O75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>505</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>506</v>
+      </c>
+      <c r="J76" t="s">
+        <v>507</v>
+      </c>
+      <c r="K76" t="s">
+        <v>508</v>
+      </c>
+      <c r="L76" t="s">
+        <v>509</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>504</v>
+      </c>
+      <c r="O76" t="s">
+        <v>65</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>511</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>512</v>
+      </c>
+      <c r="J77" t="s">
+        <v>513</v>
+      </c>
+      <c r="K77" t="s">
+        <v>514</v>
+      </c>
+      <c r="L77" t="s">
+        <v>515</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>504</v>
+      </c>
+      <c r="O77" t="s">
+        <v>389</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>517</v>
+      </c>
+      <c r="J78" t="s">
+        <v>518</v>
+      </c>
+      <c r="K78" t="s">
+        <v>519</v>
+      </c>
+      <c r="L78" t="s">
+        <v>520</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>521</v>
+      </c>
+      <c r="O78" t="s">
+        <v>78</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>523</v>
+      </c>
+      <c r="J79" t="s">
+        <v>524</v>
+      </c>
+      <c r="K79" t="s">
+        <v>525</v>
+      </c>
+      <c r="L79" t="s">
+        <v>526</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>527</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>528</v>
+      </c>
+      <c r="J80" t="s">
+        <v>529</v>
+      </c>
+      <c r="K80" t="s">
+        <v>514</v>
+      </c>
+      <c r="L80" t="s">
+        <v>530</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>521</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>531</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>532</v>
+      </c>
+      <c r="J81" t="s">
+        <v>533</v>
+      </c>
+      <c r="K81" t="s">
+        <v>534</v>
+      </c>
+      <c r="L81" t="s">
+        <v>535</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>521</v>
+      </c>
+      <c r="O81" t="s">
+        <v>78</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>1</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>536</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>537</v>
+      </c>
+      <c r="J82" t="s">
+        <v>538</v>
+      </c>
+      <c r="K82" t="s">
+        <v>539</v>
+      </c>
+      <c r="L82" t="s">
+        <v>540</v>
+      </c>
+      <c r="M82" t="n">
+        <v>3</v>
+      </c>
+      <c r="N82" t="s">
+        <v>541</v>
+      </c>
+      <c r="O82" t="s">
+        <v>78</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>543</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>544</v>
+      </c>
+      <c r="J83" t="s">
+        <v>545</v>
+      </c>
+      <c r="K83" t="s">
+        <v>546</v>
+      </c>
+      <c r="L83" t="s">
+        <v>547</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>548</v>
+      </c>
+      <c r="O83" t="s">
+        <v>65</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>550</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>551</v>
+      </c>
+      <c r="J84" t="s">
+        <v>552</v>
+      </c>
+      <c r="K84" t="s">
+        <v>553</v>
+      </c>
+      <c r="L84" t="s">
+        <v>554</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>555</v>
+      </c>
+      <c r="O84" t="s">
+        <v>389</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>556</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>557</v>
+      </c>
+      <c r="J85" t="s">
+        <v>558</v>
+      </c>
+      <c r="K85" t="s">
+        <v>559</v>
+      </c>
+      <c r="L85" t="s">
+        <v>560</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>561</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>562</v>
+      </c>
+      <c r="J86" t="s">
+        <v>563</v>
+      </c>
+      <c r="K86" t="s">
+        <v>564</v>
+      </c>
+      <c r="L86" t="s">
+        <v>565</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>566</v>
+      </c>
+      <c r="O86" t="s">
+        <v>389</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>1</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>568</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>569</v>
+      </c>
+      <c r="J87" t="s">
+        <v>570</v>
+      </c>
+      <c r="K87" t="s">
+        <v>571</v>
+      </c>
+      <c r="L87" t="s">
+        <v>572</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="s"/>
+      <c r="T87" t="s"/>
+      <c r="U87" t="s"/>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>574</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>575</v>
+      </c>
+      <c r="J88" t="s">
+        <v>576</v>
+      </c>
+      <c r="K88" t="s">
+        <v>577</v>
+      </c>
+      <c r="L88" t="s">
+        <v>578</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>580</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>581</v>
+      </c>
+      <c r="J89" t="s">
+        <v>582</v>
+      </c>
+      <c r="K89" t="s">
+        <v>583</v>
+      </c>
+      <c r="L89" t="s">
+        <v>584</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>36659</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>585</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>586</v>
+      </c>
+      <c r="J90" t="s">
+        <v>587</v>
+      </c>
+      <c r="K90" t="s">
+        <v>588</v>
+      </c>
+      <c r="L90" t="s">
+        <v>589</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="s"/>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>
